--- a/Beginner/Slides/Lec_7_8.xlsx
+++ b/Beginner/Slides/Lec_7_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43114E3D-36A1-7F42-9D59-50CD39CCBC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B53D904-66D1-E64B-8C7C-F23BD9F9971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="6" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
@@ -20,9 +20,13 @@
     <sheet name="WHERE" sheetId="9" r:id="rId5"/>
     <sheet name="Date" sheetId="12" r:id="rId6"/>
     <sheet name="Group" sheetId="13" r:id="rId7"/>
-    <sheet name="Join" sheetId="14" r:id="rId8"/>
-    <sheet name="Project" sheetId="15" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId8"/>
+    <sheet name="Join" sheetId="14" r:id="rId9"/>
+    <sheet name="Project" sheetId="15" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Group!$A$1:$E$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="875">
   <si>
     <t>- 9年软件开发经验，擅长数据库、Python、AI</t>
   </si>
@@ -2708,12 +2712,6 @@
     <t>Willa</t>
   </si>
   <si>
-    <t>统计每个系的学生人数</t>
-  </si>
-  <si>
-    <t>SELECT department_id, COUNT(*) AS student_count</t>
-  </si>
-  <si>
     <t>GROUP BY department_id;</t>
   </si>
   <si>
@@ -2892,13 +2890,40 @@
   </si>
   <si>
     <t>HAVING：分组后的条件</t>
+  </si>
+  <si>
+    <r>
+      <t>统计每个系的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>学生人数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT department_id, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="5"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>COUNT(*) AS student_count</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="49">
+  <fonts count="54">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3190,8 +3215,37 @@
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Kai Regular"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="5"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="5"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="5"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3219,6 +3273,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3296,7 +3362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3436,6 +3502,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4553,8 +4630,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5022,13 +5099,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="23">
-      <c r="A62" s="43" t="s">
-        <v>873</v>
+      <c r="A62" s="79" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="23">
-      <c r="A63" s="43" t="s">
-        <v>874</v>
+      <c r="A63" s="79" t="s">
+        <v>872</v>
       </c>
       <c r="B63" s="42"/>
     </row>
@@ -5062,6 +5139,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8922924-0EAE-7840-AA5C-43081E405588}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5413,8 +5502,8 @@
   </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -5877,7 +5966,7 @@
       <c r="B47" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="85" t="s">
         <v>269</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -5892,7 +5981,7 @@
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="74"/>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="85" t="s">
         <v>272</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -5905,7 +5994,7 @@
     </row>
     <row r="49" spans="2:12">
       <c r="B49" s="74"/>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="85" t="s">
         <v>275</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -5920,7 +6009,7 @@
     </row>
     <row r="50" spans="2:12">
       <c r="B50" s="74"/>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="85" t="s">
         <v>278</v>
       </c>
       <c r="D50" s="26" t="s">
@@ -5933,7 +6022,7 @@
     </row>
     <row r="51" spans="2:12">
       <c r="B51" s="74"/>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="85" t="s">
         <v>281</v>
       </c>
       <c r="D51" s="26" t="s">
@@ -5948,7 +6037,7 @@
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="75"/>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="85" t="s">
         <v>284</v>
       </c>
       <c r="D52" s="26" t="s">
@@ -5962,7 +6051,7 @@
       <c r="B53" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="48" t="s">
         <v>288</v>
       </c>
       <c r="D53" s="26" t="s">
@@ -5974,7 +6063,7 @@
     </row>
     <row r="54" spans="2:12">
       <c r="B54" s="74"/>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="48" t="s">
         <v>291</v>
       </c>
       <c r="D54" s="26" t="s">
@@ -5986,7 +6075,7 @@
     </row>
     <row r="55" spans="2:12">
       <c r="B55" s="74"/>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="48" t="s">
         <v>294</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -5998,7 +6087,7 @@
     </row>
     <row r="56" spans="2:12">
       <c r="B56" s="74"/>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="48" t="s">
         <v>297</v>
       </c>
       <c r="D56" s="26" t="s">
@@ -6010,13 +6099,13 @@
     </row>
     <row r="57" spans="2:12">
       <c r="B57" s="75"/>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="48" t="s">
         <v>300</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="86" t="s">
         <v>302</v>
       </c>
     </row>
@@ -9000,7 +9089,7 @@
   </sheetPr>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.83203125" defaultRowHeight="24"/>
   <cols>
@@ -9009,7 +9098,8 @@
     <col min="3" max="3" width="17.33203125" style="63" customWidth="1"/>
     <col min="4" max="4" width="18" style="63" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" style="63" customWidth="1"/>
-    <col min="6" max="7" width="31.83203125" style="63"/>
+    <col min="6" max="6" width="40.5" style="63" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" style="63"/>
     <col min="8" max="8" width="31.83203125" style="66"/>
     <col min="9" max="16384" width="31.83203125" style="63"/>
   </cols>
@@ -9030,9 +9120,13 @@
       <c r="E1" s="68" t="s">
         <v>760</v>
       </c>
+      <c r="F1" s="48" t="s">
+        <v>288</v>
+      </c>
       <c r="G1" s="69" t="s">
-        <v>813</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="64">
@@ -9050,9 +9144,12 @@
       <c r="E2" s="64">
         <v>1</v>
       </c>
+      <c r="F2" s="48" t="s">
+        <v>291</v>
+      </c>
       <c r="G2" s="70"/>
-      <c r="H2" s="67" t="s">
-        <v>814</v>
+      <c r="H2" s="84" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9071,8 +9168,11 @@
       <c r="E3" s="64">
         <v>2</v>
       </c>
+      <c r="F3" s="48" t="s">
+        <v>294</v>
+      </c>
       <c r="G3" s="65"/>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="84" t="s">
         <v>630</v>
       </c>
     </row>
@@ -9088,9 +9188,12 @@
         <v>764</v>
       </c>
       <c r="E4" s="64"/>
+      <c r="F4" s="48" t="s">
+        <v>297</v>
+      </c>
       <c r="G4" s="65"/>
-      <c r="H4" s="67" t="s">
-        <v>815</v>
+      <c r="H4" s="84" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9107,7 +9210,11 @@
       <c r="E5" s="64">
         <v>3</v>
       </c>
+      <c r="F5" s="48" t="s">
+        <v>300</v>
+      </c>
       <c r="G5" s="65"/>
+      <c r="H5" s="83"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="64">
@@ -9126,6 +9233,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="70"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="64">
@@ -9143,9 +9251,11 @@
       <c r="E7" s="64">
         <v>2</v>
       </c>
+      <c r="F7" s="89"/>
       <c r="G7" s="69" t="s">
-        <v>816</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="H7" s="87"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="64">
@@ -9164,8 +9274,8 @@
         <v>3</v>
       </c>
       <c r="G8" s="70"/>
-      <c r="H8" s="67" t="s">
-        <v>817</v>
+      <c r="H8" s="88" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9183,7 +9293,7 @@
       </c>
       <c r="E9" s="64"/>
       <c r="G9" s="65"/>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="88" t="s">
         <v>630</v>
       </c>
     </row>
@@ -9203,9 +9313,10 @@
       <c r="E10" s="64">
         <v>2</v>
       </c>
+      <c r="F10" s="87"/>
       <c r="G10" s="65"/>
-      <c r="H10" s="67" t="s">
-        <v>818</v>
+      <c r="H10" s="88" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9225,6 +9336,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="65"/>
+      <c r="H11" s="87"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="64">
@@ -9241,6 +9353,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="70"/>
+      <c r="H12" s="87"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="64">
@@ -9259,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9280,7 +9393,7 @@
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="67" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9322,7 +9435,7 @@
       </c>
       <c r="G16" s="65"/>
       <c r="H16" s="67" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9378,7 +9491,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="69" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9397,7 +9510,7 @@
       <c r="E20" s="64"/>
       <c r="G20" s="70"/>
       <c r="H20" s="67" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9437,7 +9550,7 @@
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="67" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9493,7 +9606,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="69" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9514,7 +9627,7 @@
       </c>
       <c r="G26" s="70"/>
       <c r="H26" s="67" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9556,7 +9669,7 @@
       </c>
       <c r="G28" s="65"/>
       <c r="H28" s="67" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9609,7 +9722,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9630,7 +9743,7 @@
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="67" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9672,7 +9785,7 @@
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="67" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -9693,7 +9806,7 @@
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="67" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -9746,7 +9859,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -9764,7 +9877,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="67" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -9804,7 +9917,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="67" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -9859,7 +9972,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -9879,7 +9992,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="67" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -9919,7 +10032,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="67" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9938,7 +10051,7 @@
       <c r="E48" s="64"/>
       <c r="G48" s="24"/>
       <c r="H48" s="67" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -9993,12 +10106,12 @@
         <v>2</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="H52" s="67" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -10008,7 +10121,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="H54" s="67" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -10016,13 +10129,13 @@
     </row>
     <row r="56" spans="1:8">
       <c r="G56" s="22" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="G57" s="24"/>
       <c r="H57" s="67" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -10032,12 +10145,12 @@
     </row>
     <row r="59" spans="1:8">
       <c r="H59" s="67" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="H60" s="67" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -10045,13 +10158,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="G62" s="20" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="G63" s="21"/>
       <c r="H63" s="67" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -10061,17 +10174,17 @@
     </row>
     <row r="65" spans="7:8">
       <c r="H65" s="67" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="66" spans="7:8">
       <c r="H66" s="67" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="67" spans="7:8">
       <c r="H67" s="67" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="69" spans="7:8">
@@ -10079,13 +10192,13 @@
     </row>
     <row r="70" spans="7:8">
       <c r="G70" s="20" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="71" spans="7:8">
       <c r="G71" s="21"/>
       <c r="H71" s="67" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="72" spans="7:8">
@@ -10095,17 +10208,17 @@
     </row>
     <row r="73" spans="7:8">
       <c r="H73" s="67" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="74" spans="7:8">
       <c r="H74" s="67" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="75" spans="7:8">
       <c r="H75" s="67" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="77" spans="7:8">
@@ -10113,13 +10226,13 @@
     </row>
     <row r="78" spans="7:8">
       <c r="G78" s="20" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="79" spans="7:8">
       <c r="G79" s="21"/>
       <c r="H79" s="67" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="80" spans="7:8">
@@ -10129,12 +10242,12 @@
     </row>
     <row r="81" spans="7:8">
       <c r="H81" s="67" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="82" spans="7:8">
       <c r="H82" s="67" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="84" spans="7:8">
@@ -10142,13 +10255,13 @@
     </row>
     <row r="85" spans="7:8">
       <c r="G85" s="20" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="86" spans="7:8">
       <c r="G86" s="21"/>
       <c r="H86" s="67" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="87" spans="7:8">
@@ -10158,17 +10271,17 @@
     </row>
     <row r="88" spans="7:8">
       <c r="H88" s="67" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="89" spans="7:8">
       <c r="H89" s="67" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="90" spans="7:8">
       <c r="H90" s="67" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="92" spans="7:8">
@@ -10176,13 +10289,13 @@
     </row>
     <row r="93" spans="7:8">
       <c r="G93" s="20" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="94" spans="7:8">
       <c r="G94" s="21"/>
       <c r="H94" s="67" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="95" spans="7:8">
@@ -10192,17 +10305,17 @@
     </row>
     <row r="96" spans="7:8">
       <c r="H96" s="67" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="97" spans="7:8">
       <c r="H97" s="67" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="98" spans="7:8">
       <c r="H98" s="67" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="100" spans="7:8">
@@ -10210,13 +10323,13 @@
     </row>
     <row r="101" spans="7:8">
       <c r="G101" s="20" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="102" spans="7:8">
       <c r="G102" s="21"/>
       <c r="H102" s="67" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="103" spans="7:8">
@@ -10226,22 +10339,22 @@
     </row>
     <row r="104" spans="7:8">
       <c r="H104" s="67" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="105" spans="7:8">
       <c r="H105" s="67" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="106" spans="7:8">
       <c r="H106" s="67" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="107" spans="7:8">
       <c r="H107" s="67" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="109" spans="7:8">
@@ -10249,13 +10362,13 @@
     </row>
     <row r="110" spans="7:8">
       <c r="G110" s="20" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="111" spans="7:8">
       <c r="G111" s="21"/>
       <c r="H111" s="67" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="112" spans="7:8">
@@ -10265,12 +10378,12 @@
     </row>
     <row r="113" spans="7:8">
       <c r="H113" s="67" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="114" spans="7:8">
       <c r="H114" s="67" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="116" spans="7:8">
@@ -10278,13 +10391,13 @@
     </row>
     <row r="117" spans="7:8">
       <c r="G117" s="20" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="118" spans="7:8">
       <c r="G118" s="21"/>
       <c r="H118" s="67" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="119" spans="7:8">
@@ -10294,12 +10407,12 @@
     </row>
     <row r="120" spans="7:8">
       <c r="H120" s="67" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="121" spans="7:8">
       <c r="H121" s="67" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="123" spans="7:8">
@@ -10307,13 +10420,13 @@
     </row>
     <row r="124" spans="7:8">
       <c r="G124" s="20" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="125" spans="7:8">
       <c r="G125" s="21"/>
       <c r="H125" s="67" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="126" spans="7:8">
@@ -10323,12 +10436,12 @@
     </row>
     <row r="127" spans="7:8">
       <c r="H127" s="67" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="128" spans="7:8">
       <c r="H128" s="67" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="130" spans="7:8">
@@ -10336,13 +10449,13 @@
     </row>
     <row r="131" spans="7:8">
       <c r="G131" s="20" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="132" spans="7:8">
       <c r="G132" s="21"/>
       <c r="H132" s="67" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="133" spans="7:8">
@@ -10352,17 +10465,17 @@
     </row>
     <row r="134" spans="7:8">
       <c r="H134" s="67" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="135" spans="7:8">
       <c r="H135" s="67" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="136" spans="7:8">
       <c r="H136" s="67" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="149" spans="7:7">
@@ -10397,13 +10510,770 @@
     </row>
     <row r="159" spans="7:7">
       <c r="G159" s="24"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E51" xr:uid="{EE6A4569-7AEF-904E-A35E-2FEE8FCAFC15}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53120742-3F66-A846-9F6C-4E1D1E46BC73}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24">
+      <c r="A1" s="80">
+        <v>3001</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>761</v>
+      </c>
+      <c r="C1" s="80">
+        <v>20</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="E1" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24">
+      <c r="A2" s="80">
+        <v>3005</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2" s="80">
+        <v>19</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="E2" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24">
+      <c r="A3" s="80">
+        <v>3010</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>771</v>
+      </c>
+      <c r="C3" s="80">
+        <v>22</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="E3" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24">
+      <c r="A4" s="80">
+        <v>3012</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>773</v>
+      </c>
+      <c r="C4" s="80">
+        <v>25</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="E4" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24">
+      <c r="A5" s="80">
+        <v>3015</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>776</v>
+      </c>
+      <c r="C5" s="80">
+        <v>21</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="E5" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24">
+      <c r="A6" s="80">
+        <v>3017</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>778</v>
+      </c>
+      <c r="C6" s="80">
+        <v>22</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="E6" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24">
+      <c r="A7" s="80">
+        <v>3021</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>783</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="E7" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24">
+      <c r="A8" s="80">
+        <v>3024</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>786</v>
+      </c>
+      <c r="C8" s="80">
+        <v>22</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="E8" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24">
+      <c r="A9" s="80">
+        <v>3027</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>789</v>
+      </c>
+      <c r="C9" s="80">
+        <v>25</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="E9" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24">
+      <c r="A10" s="80">
+        <v>3030</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>792</v>
+      </c>
+      <c r="C10" s="80">
+        <v>18</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="E10" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24">
+      <c r="A11" s="80">
+        <v>3033</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>795</v>
+      </c>
+      <c r="C11" s="80">
+        <v>28</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="E11" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24">
+      <c r="A12" s="80">
+        <v>3038</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>800</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="E12" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24">
+      <c r="A13" s="80">
+        <v>3040</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>802</v>
+      </c>
+      <c r="C13" s="80">
+        <v>20</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="E13" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24">
+      <c r="A14" s="80">
+        <v>3043</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>805</v>
+      </c>
+      <c r="C14" s="80">
+        <v>26</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="E14" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24">
+      <c r="A15" s="80">
+        <v>3045</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>807</v>
+      </c>
+      <c r="C15" s="80">
+        <v>20</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="E15" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24">
+      <c r="A16" s="80">
+        <v>3049</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>811</v>
+      </c>
+      <c r="C16" s="80">
+        <v>23</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="E16" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24">
+      <c r="A17" s="81">
+        <v>3002</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>763</v>
+      </c>
+      <c r="C17" s="81">
+        <v>21</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>764</v>
+      </c>
+      <c r="E17" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24">
+      <c r="A18" s="81">
+        <v>3006</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>767</v>
+      </c>
+      <c r="C18" s="81">
+        <v>24</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>764</v>
+      </c>
+      <c r="E18" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24">
+      <c r="A19" s="81">
+        <v>3009</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>770</v>
+      </c>
+      <c r="C19" s="81">
+        <v>20</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="E19" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24">
+      <c r="A20" s="81">
+        <v>3013</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>774</v>
+      </c>
+      <c r="C20" s="81">
+        <v>20</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="E20" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24">
+      <c r="A21" s="81">
+        <v>3016</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>777</v>
+      </c>
+      <c r="C21" s="81">
+        <v>30</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>764</v>
+      </c>
+      <c r="E21" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24">
+      <c r="A22" s="81">
+        <v>3018</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>779</v>
+      </c>
+      <c r="C22" s="81">
+        <v>23</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>780</v>
+      </c>
+      <c r="E22" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24">
+      <c r="A23" s="81">
+        <v>3022</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>784</v>
+      </c>
+      <c r="C23" s="81">
+        <v>20</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="E23" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24">
+      <c r="A24" s="81">
+        <v>3025</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>787</v>
+      </c>
+      <c r="C24" s="81">
+        <v>20</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>764</v>
+      </c>
+      <c r="E24" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24">
+      <c r="A25" s="81">
+        <v>3029</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>791</v>
+      </c>
+      <c r="C25" s="81">
+        <v>24</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>764</v>
+      </c>
+      <c r="E25" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24">
+      <c r="A26" s="81">
+        <v>3032</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>794</v>
+      </c>
+      <c r="C26" s="81">
+        <v>19</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="E26" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24">
+      <c r="A27" s="81">
+        <v>3036</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>798</v>
+      </c>
+      <c r="C27" s="81">
+        <v>20</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="E27" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24">
+      <c r="A28" s="81">
+        <v>3039</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>801</v>
+      </c>
+      <c r="C28" s="81">
+        <v>21</v>
+      </c>
+      <c r="D28" s="81" t="s">
+        <v>764</v>
+      </c>
+      <c r="E28" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24">
+      <c r="A29" s="81">
+        <v>3042</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>804</v>
+      </c>
+      <c r="C29" s="81">
+        <v>24</v>
+      </c>
+      <c r="D29" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="E29" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24">
+      <c r="A30" s="81">
+        <v>3046</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>808</v>
+      </c>
+      <c r="C30" s="81">
+        <v>19</v>
+      </c>
+      <c r="D30" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="E30" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24">
+      <c r="A31" s="81">
+        <v>3050</v>
+      </c>
+      <c r="B31" s="81" t="s">
+        <v>812</v>
+      </c>
+      <c r="C31" s="81">
+        <v>21</v>
+      </c>
+      <c r="D31" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="E31" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24">
+      <c r="A32" s="82">
+        <v>3004</v>
+      </c>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82">
+        <v>22</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>762</v>
+      </c>
+      <c r="E32" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24">
+      <c r="A33" s="82">
+        <v>3007</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>768</v>
+      </c>
+      <c r="C33" s="82">
+        <v>20</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>762</v>
+      </c>
+      <c r="E33" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24">
+      <c r="A34" s="82">
+        <v>3011</v>
+      </c>
+      <c r="B34" s="82" t="s">
+        <v>772</v>
+      </c>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82" t="s">
+        <v>762</v>
+      </c>
+      <c r="E34" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24">
+      <c r="A35" s="82">
+        <v>3014</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>775</v>
+      </c>
+      <c r="C35" s="82">
+        <v>28</v>
+      </c>
+      <c r="D35" s="82" t="s">
+        <v>764</v>
+      </c>
+      <c r="E35" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24">
+      <c r="A36" s="82">
+        <v>3020</v>
+      </c>
+      <c r="B36" s="82" t="s">
+        <v>782</v>
+      </c>
+      <c r="C36" s="82">
+        <v>19</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>764</v>
+      </c>
+      <c r="E36" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24">
+      <c r="A37" s="82">
+        <v>3023</v>
+      </c>
+      <c r="B37" s="82" t="s">
+        <v>785</v>
+      </c>
+      <c r="C37" s="82">
+        <v>21</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>764</v>
+      </c>
+      <c r="E37" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24">
+      <c r="A38" s="82">
+        <v>3026</v>
+      </c>
+      <c r="B38" s="82" t="s">
+        <v>788</v>
+      </c>
+      <c r="C38" s="82">
+        <v>23</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>762</v>
+      </c>
+      <c r="E38" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24">
+      <c r="A39" s="82">
+        <v>3031</v>
+      </c>
+      <c r="B39" s="82" t="s">
+        <v>793</v>
+      </c>
+      <c r="C39" s="82">
+        <v>27</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>764</v>
+      </c>
+      <c r="E39" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="24">
+      <c r="A40" s="82">
+        <v>3034</v>
+      </c>
+      <c r="B40" s="82" t="s">
+        <v>796</v>
+      </c>
+      <c r="C40" s="82">
+        <v>21</v>
+      </c>
+      <c r="D40" s="82" t="s">
+        <v>762</v>
+      </c>
+      <c r="E40" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="24">
+      <c r="A41" s="82">
+        <v>3037</v>
+      </c>
+      <c r="B41" s="82" t="s">
+        <v>799</v>
+      </c>
+      <c r="C41" s="82">
+        <v>23</v>
+      </c>
+      <c r="D41" s="82" t="s">
+        <v>764</v>
+      </c>
+      <c r="E41" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="24">
+      <c r="A42" s="82">
+        <v>3041</v>
+      </c>
+      <c r="B42" s="82" t="s">
+        <v>803</v>
+      </c>
+      <c r="C42" s="82">
+        <v>29</v>
+      </c>
+      <c r="D42" s="82" t="s">
+        <v>764</v>
+      </c>
+      <c r="E42" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="24">
+      <c r="A43" s="82">
+        <v>3044</v>
+      </c>
+      <c r="B43" s="82" t="s">
+        <v>806</v>
+      </c>
+      <c r="C43" s="82">
+        <v>22</v>
+      </c>
+      <c r="D43" s="82" t="s">
+        <v>762</v>
+      </c>
+      <c r="E43" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="24">
+      <c r="A44" s="82">
+        <v>3048</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>810</v>
+      </c>
+      <c r="C44" s="82">
+        <v>28</v>
+      </c>
+      <c r="D44" s="82" t="s">
+        <v>762</v>
+      </c>
+      <c r="E44" s="82">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA3D989-D147-544C-A2CC-C861A819279C}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -10416,16 +11286,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8922924-0EAE-7840-AA5C-43081E405588}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Beginner/Slides/Lec_7_8.xlsx
+++ b/Beginner/Slides/Lec_7_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B53D904-66D1-E64B-8C7C-F23BD9F9971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237B23B1-486E-9E44-A7EC-CE1A40159209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="6" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
@@ -3362,7 +3362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3478,6 +3478,16 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3502,17 +3512,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4837,7 +4836,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="81" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4851,7 +4850,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="71"/>
+      <c r="D29" s="81"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -4863,7 +4862,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="71"/>
+      <c r="D30" s="81"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -4875,7 +4874,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="71"/>
+      <c r="D31" s="81"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -4887,7 +4886,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="71"/>
+      <c r="D32" s="81"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -4899,7 +4898,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="71"/>
+      <c r="D33" s="81"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -4911,7 +4910,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="71"/>
+      <c r="D34" s="81"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -4923,7 +4922,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="71"/>
+      <c r="D35" s="81"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -4935,7 +4934,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="71"/>
+      <c r="D36" s="81"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -4947,7 +4946,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="71"/>
+      <c r="D37" s="81"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -4959,7 +4958,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="71"/>
+      <c r="D38" s="81"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -4971,7 +4970,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="71"/>
+      <c r="D39" s="81"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -4983,7 +4982,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="71"/>
+      <c r="D40" s="81"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -4995,7 +4994,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="71"/>
+      <c r="D41" s="81"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -5007,7 +5006,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="71"/>
+      <c r="D42" s="81"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -5019,7 +5018,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="71"/>
+      <c r="D43" s="81"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -5031,7 +5030,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="71"/>
+      <c r="D44" s="81"/>
     </row>
     <row r="52" spans="1:5" ht="27">
       <c r="A52" s="3" t="s">
@@ -5099,12 +5098,12 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="23">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="71" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="23">
-      <c r="A63" s="79" t="s">
+      <c r="A63" s="71" t="s">
         <v>872</v>
       </c>
       <c r="B63" s="42"/>
@@ -5413,10 +5412,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="72"/>
+      <c r="D46" s="82"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -5636,7 +5635,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="86" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -5650,7 +5649,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="77"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="58" t="s">
         <v>485</v>
       </c>
@@ -5662,7 +5661,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="86" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -5676,7 +5675,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="77"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="26" t="s">
         <v>209</v>
       </c>
@@ -5688,7 +5687,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="86" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -5702,7 +5701,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="77"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
@@ -5742,7 +5741,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="86" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -5756,7 +5755,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="78"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -5768,7 +5767,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="77"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -5808,7 +5807,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="83" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -5822,7 +5821,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="74"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
@@ -5834,7 +5833,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="74"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="26" t="s">
         <v>604</v>
       </c>
@@ -5846,7 +5845,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="74"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="26" t="s">
         <v>248</v>
       </c>
@@ -5858,7 +5857,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="74"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="26" t="s">
         <v>250</v>
       </c>
@@ -5870,7 +5869,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="75"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="26" t="s">
         <v>252</v>
       </c>
@@ -5882,7 +5881,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="83" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -5896,7 +5895,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="74"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="26" t="s">
         <v>259</v>
       </c>
@@ -5908,7 +5907,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="74"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="59" t="s">
         <v>606</v>
       </c>
@@ -5923,7 +5922,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="74"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="26" t="s">
         <v>605</v>
       </c>
@@ -5935,7 +5934,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="74"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="26" t="s">
         <v>264</v>
       </c>
@@ -5950,7 +5949,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="75"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="26" t="s">
         <v>266</v>
       </c>
@@ -5963,10 +5962,10 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="C47" s="85" t="s">
+      <c r="C47" s="26" t="s">
         <v>269</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -5980,8 +5979,8 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="74"/>
-      <c r="C48" s="85" t="s">
+      <c r="B48" s="84"/>
+      <c r="C48" s="26" t="s">
         <v>272</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -5993,8 +5992,8 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="74"/>
-      <c r="C49" s="85" t="s">
+      <c r="B49" s="84"/>
+      <c r="C49" s="26" t="s">
         <v>275</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -6008,8 +6007,8 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="74"/>
-      <c r="C50" s="85" t="s">
+      <c r="B50" s="84"/>
+      <c r="C50" s="26" t="s">
         <v>278</v>
       </c>
       <c r="D50" s="26" t="s">
@@ -6021,8 +6020,8 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="74"/>
-      <c r="C51" s="85" t="s">
+      <c r="B51" s="84"/>
+      <c r="C51" s="26" t="s">
         <v>281</v>
       </c>
       <c r="D51" s="26" t="s">
@@ -6036,8 +6035,8 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="75"/>
-      <c r="C52" s="85" t="s">
+      <c r="B52" s="85"/>
+      <c r="C52" s="26" t="s">
         <v>284</v>
       </c>
       <c r="D52" s="26" t="s">
@@ -6048,7 +6047,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="83" t="s">
         <v>287</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -6062,7 +6061,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="74"/>
+      <c r="B54" s="84"/>
       <c r="C54" s="48" t="s">
         <v>291</v>
       </c>
@@ -6074,7 +6073,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="74"/>
+      <c r="B55" s="84"/>
       <c r="C55" s="48" t="s">
         <v>294</v>
       </c>
@@ -6086,7 +6085,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="74"/>
+      <c r="B56" s="84"/>
       <c r="C56" s="48" t="s">
         <v>297</v>
       </c>
@@ -6098,19 +6097,19 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="75"/>
+      <c r="B57" s="85"/>
       <c r="C57" s="48" t="s">
         <v>300</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="E57" s="86" t="s">
+      <c r="E57" s="77" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="83" t="s">
         <v>303</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -6124,7 +6123,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="74"/>
+      <c r="B59" s="84"/>
       <c r="C59" s="26" t="s">
         <v>307</v>
       </c>
@@ -6136,7 +6135,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="74"/>
+      <c r="B60" s="84"/>
       <c r="C60" s="26" t="s">
         <v>310</v>
       </c>
@@ -6148,7 +6147,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="75"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="26" t="s">
         <v>313</v>
       </c>
@@ -9126,7 +9125,7 @@
       <c r="G1" s="69" t="s">
         <v>873</v>
       </c>
-      <c r="H1" s="83"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="64">
@@ -9148,7 +9147,7 @@
         <v>291</v>
       </c>
       <c r="G2" s="70"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="76" t="s">
         <v>874</v>
       </c>
     </row>
@@ -9172,7 +9171,7 @@
         <v>294</v>
       </c>
       <c r="G3" s="65"/>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="76" t="s">
         <v>630</v>
       </c>
     </row>
@@ -9192,7 +9191,7 @@
         <v>297</v>
       </c>
       <c r="G4" s="65"/>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="76" t="s">
         <v>813</v>
       </c>
     </row>
@@ -9214,7 +9213,7 @@
         <v>300</v>
       </c>
       <c r="G5" s="65"/>
-      <c r="H5" s="83"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="64">
@@ -9233,7 +9232,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="70"/>
-      <c r="H6" s="83"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="64">
@@ -9251,11 +9250,11 @@
       <c r="E7" s="64">
         <v>2</v>
       </c>
-      <c r="F7" s="89"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="69" t="s">
         <v>814</v>
       </c>
-      <c r="H7" s="87"/>
+      <c r="H7" s="78"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="64">
@@ -9274,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="70"/>
-      <c r="H8" s="88" t="s">
+      <c r="H8" s="79" t="s">
         <v>815</v>
       </c>
     </row>
@@ -9293,7 +9292,7 @@
       </c>
       <c r="E9" s="64"/>
       <c r="G9" s="65"/>
-      <c r="H9" s="88" t="s">
+      <c r="H9" s="79" t="s">
         <v>630</v>
       </c>
     </row>
@@ -9313,9 +9312,9 @@
       <c r="E10" s="64">
         <v>2</v>
       </c>
-      <c r="F10" s="87"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="65"/>
-      <c r="H10" s="88" t="s">
+      <c r="H10" s="79" t="s">
         <v>816</v>
       </c>
     </row>
@@ -9336,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="65"/>
-      <c r="H11" s="87"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="64">
@@ -9353,7 +9352,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="70"/>
-      <c r="H12" s="87"/>
+      <c r="H12" s="78"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="64">
@@ -10529,742 +10528,742 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5" ht="24">
-      <c r="A1" s="80">
+      <c r="A1" s="72">
         <v>3001</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="72" t="s">
         <v>761</v>
       </c>
-      <c r="C1" s="80">
+      <c r="C1" s="72">
         <v>20</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="72" t="s">
         <v>762</v>
       </c>
-      <c r="E1" s="80">
+      <c r="E1" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24">
-      <c r="A2" s="80">
+      <c r="A2" s="72">
         <v>3005</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="72" t="s">
         <v>766</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2" s="72">
         <v>19</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="72" t="s">
         <v>762</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24">
-      <c r="A3" s="80">
+      <c r="A3" s="72">
         <v>3010</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="72" t="s">
         <v>771</v>
       </c>
-      <c r="C3" s="80">
+      <c r="C3" s="72">
         <v>22</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="72" t="s">
         <v>764</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24">
-      <c r="A4" s="80">
+      <c r="A4" s="72">
         <v>3012</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="72" t="s">
         <v>773</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="72">
         <v>25</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="72" t="s">
         <v>764</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24">
-      <c r="A5" s="80">
+      <c r="A5" s="72">
         <v>3015</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="72" t="s">
         <v>776</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="72">
         <v>21</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="72" t="s">
         <v>762</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24">
-      <c r="A6" s="80">
+      <c r="A6" s="72">
         <v>3017</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="72" t="s">
         <v>778</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="72">
         <v>22</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="72" t="s">
         <v>762</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24">
-      <c r="A7" s="80">
+      <c r="A7" s="72">
         <v>3021</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="72" t="s">
         <v>783</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72" t="s">
         <v>762</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24">
-      <c r="A8" s="80">
+      <c r="A8" s="72">
         <v>3024</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="72" t="s">
         <v>786</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="72">
         <v>22</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="72" t="s">
         <v>762</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24">
-      <c r="A9" s="80">
+      <c r="A9" s="72">
         <v>3027</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="72" t="s">
         <v>789</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="72">
         <v>25</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="72" t="s">
         <v>764</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24">
-      <c r="A10" s="80">
+      <c r="A10" s="72">
         <v>3030</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="72" t="s">
         <v>792</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="72">
         <v>18</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="72" t="s">
         <v>762</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24">
-      <c r="A11" s="80">
+      <c r="A11" s="72">
         <v>3033</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="72" t="s">
         <v>795</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="72">
         <v>28</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="72" t="s">
         <v>764</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24">
-      <c r="A12" s="80">
+      <c r="A12" s="72">
         <v>3038</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="72" t="s">
         <v>800</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="72" t="s">
         <v>762</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24">
-      <c r="A13" s="80">
+      <c r="A13" s="72">
         <v>3040</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="72" t="s">
         <v>802</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="72">
         <v>20</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="72" t="s">
         <v>762</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24">
-      <c r="A14" s="80">
+      <c r="A14" s="72">
         <v>3043</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="72" t="s">
         <v>805</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="72">
         <v>26</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="72" t="s">
         <v>764</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="24">
-      <c r="A15" s="80">
+      <c r="A15" s="72">
         <v>3045</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="72" t="s">
         <v>807</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C15" s="72">
         <v>20</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="72" t="s">
         <v>764</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="24">
-      <c r="A16" s="80">
+      <c r="A16" s="72">
         <v>3049</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="72" t="s">
         <v>811</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="72">
         <v>23</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="72" t="s">
         <v>764</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24">
-      <c r="A17" s="81">
+      <c r="A17" s="73">
         <v>3002</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="73" t="s">
         <v>763</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="73">
         <v>21</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="73" t="s">
         <v>764</v>
       </c>
-      <c r="E17" s="81">
+      <c r="E17" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="24">
-      <c r="A18" s="81">
+      <c r="A18" s="73">
         <v>3006</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="73" t="s">
         <v>767</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="73">
         <v>24</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="73" t="s">
         <v>764</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="24">
-      <c r="A19" s="81">
+      <c r="A19" s="73">
         <v>3009</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="73" t="s">
         <v>770</v>
       </c>
-      <c r="C19" s="81">
+      <c r="C19" s="73">
         <v>20</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="E19" s="81">
+      <c r="E19" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="24">
-      <c r="A20" s="81">
+      <c r="A20" s="73">
         <v>3013</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="73" t="s">
         <v>774</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="73">
         <v>20</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="E20" s="81">
+      <c r="E20" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="24">
-      <c r="A21" s="81">
+      <c r="A21" s="73">
         <v>3016</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="73" t="s">
         <v>777</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="73">
         <v>30</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="73" t="s">
         <v>764</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="24">
-      <c r="A22" s="81">
+      <c r="A22" s="73">
         <v>3018</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="73" t="s">
         <v>779</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="73">
         <v>23</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="73" t="s">
         <v>780</v>
       </c>
-      <c r="E22" s="81">
+      <c r="E22" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="24">
-      <c r="A23" s="81">
+      <c r="A23" s="73">
         <v>3022</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="73" t="s">
         <v>784</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="73">
         <v>20</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="E23" s="81">
+      <c r="E23" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="24">
-      <c r="A24" s="81">
+      <c r="A24" s="73">
         <v>3025</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="73" t="s">
         <v>787</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="73">
         <v>20</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="73" t="s">
         <v>764</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="24">
-      <c r="A25" s="81">
+      <c r="A25" s="73">
         <v>3029</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="73" t="s">
         <v>791</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="73">
         <v>24</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="73" t="s">
         <v>764</v>
       </c>
-      <c r="E25" s="81">
+      <c r="E25" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="24">
-      <c r="A26" s="81">
+      <c r="A26" s="73">
         <v>3032</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="73" t="s">
         <v>794</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="73">
         <v>19</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="24">
-      <c r="A27" s="81">
+      <c r="A27" s="73">
         <v>3036</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="73" t="s">
         <v>798</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="73">
         <v>20</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="E27" s="81">
+      <c r="E27" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="24">
-      <c r="A28" s="81">
+      <c r="A28" s="73">
         <v>3039</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="73" t="s">
         <v>801</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="73">
         <v>21</v>
       </c>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="73" t="s">
         <v>764</v>
       </c>
-      <c r="E28" s="81">
+      <c r="E28" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="24">
-      <c r="A29" s="81">
+      <c r="A29" s="73">
         <v>3042</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="73" t="s">
         <v>804</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="73">
         <v>24</v>
       </c>
-      <c r="D29" s="81" t="s">
+      <c r="D29" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="E29" s="81">
+      <c r="E29" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="24">
-      <c r="A30" s="81">
+      <c r="A30" s="73">
         <v>3046</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="73" t="s">
         <v>808</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="73">
         <v>19</v>
       </c>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="24">
-      <c r="A31" s="81">
+      <c r="A31" s="73">
         <v>3050</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="73" t="s">
         <v>812</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="73">
         <v>21</v>
       </c>
-      <c r="D31" s="81" t="s">
+      <c r="D31" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="E31" s="81">
+      <c r="E31" s="73">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="24">
-      <c r="A32" s="82">
+      <c r="A32" s="74">
         <v>3004</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82">
+      <c r="B32" s="74"/>
+      <c r="C32" s="74">
         <v>22</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="74" t="s">
         <v>762</v>
       </c>
-      <c r="E32" s="82">
+      <c r="E32" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="24">
-      <c r="A33" s="82">
+      <c r="A33" s="74">
         <v>3007</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="74" t="s">
         <v>768</v>
       </c>
-      <c r="C33" s="82">
+      <c r="C33" s="74">
         <v>20</v>
       </c>
-      <c r="D33" s="82" t="s">
+      <c r="D33" s="74" t="s">
         <v>762</v>
       </c>
-      <c r="E33" s="82">
+      <c r="E33" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="24">
-      <c r="A34" s="82">
+      <c r="A34" s="74">
         <v>3011</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="74" t="s">
         <v>772</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82" t="s">
+      <c r="C34" s="74"/>
+      <c r="D34" s="74" t="s">
         <v>762</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="24">
-      <c r="A35" s="82">
+      <c r="A35" s="74">
         <v>3014</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="74" t="s">
         <v>775</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="74">
         <v>28</v>
       </c>
-      <c r="D35" s="82" t="s">
+      <c r="D35" s="74" t="s">
         <v>764</v>
       </c>
-      <c r="E35" s="82">
+      <c r="E35" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="24">
-      <c r="A36" s="82">
+      <c r="A36" s="74">
         <v>3020</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="74" t="s">
         <v>782</v>
       </c>
-      <c r="C36" s="82">
+      <c r="C36" s="74">
         <v>19</v>
       </c>
-      <c r="D36" s="82" t="s">
+      <c r="D36" s="74" t="s">
         <v>764</v>
       </c>
-      <c r="E36" s="82">
+      <c r="E36" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="24">
-      <c r="A37" s="82">
+      <c r="A37" s="74">
         <v>3023</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="74" t="s">
         <v>785</v>
       </c>
-      <c r="C37" s="82">
+      <c r="C37" s="74">
         <v>21</v>
       </c>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="74" t="s">
         <v>764</v>
       </c>
-      <c r="E37" s="82">
+      <c r="E37" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="24">
-      <c r="A38" s="82">
+      <c r="A38" s="74">
         <v>3026</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="74" t="s">
         <v>788</v>
       </c>
-      <c r="C38" s="82">
+      <c r="C38" s="74">
         <v>23</v>
       </c>
-      <c r="D38" s="82" t="s">
+      <c r="D38" s="74" t="s">
         <v>762</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="24">
-      <c r="A39" s="82">
+      <c r="A39" s="74">
         <v>3031</v>
       </c>
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="74" t="s">
         <v>793</v>
       </c>
-      <c r="C39" s="82">
+      <c r="C39" s="74">
         <v>27</v>
       </c>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="74" t="s">
         <v>764</v>
       </c>
-      <c r="E39" s="82">
+      <c r="E39" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="24">
-      <c r="A40" s="82">
+      <c r="A40" s="74">
         <v>3034</v>
       </c>
-      <c r="B40" s="82" t="s">
+      <c r="B40" s="74" t="s">
         <v>796</v>
       </c>
-      <c r="C40" s="82">
+      <c r="C40" s="74">
         <v>21</v>
       </c>
-      <c r="D40" s="82" t="s">
+      <c r="D40" s="74" t="s">
         <v>762</v>
       </c>
-      <c r="E40" s="82">
+      <c r="E40" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="24">
-      <c r="A41" s="82">
+      <c r="A41" s="74">
         <v>3037</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="74" t="s">
         <v>799</v>
       </c>
-      <c r="C41" s="82">
+      <c r="C41" s="74">
         <v>23</v>
       </c>
-      <c r="D41" s="82" t="s">
+      <c r="D41" s="74" t="s">
         <v>764</v>
       </c>
-      <c r="E41" s="82">
+      <c r="E41" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="24">
-      <c r="A42" s="82">
+      <c r="A42" s="74">
         <v>3041</v>
       </c>
-      <c r="B42" s="82" t="s">
+      <c r="B42" s="74" t="s">
         <v>803</v>
       </c>
-      <c r="C42" s="82">
+      <c r="C42" s="74">
         <v>29</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="74" t="s">
         <v>764</v>
       </c>
-      <c r="E42" s="82">
+      <c r="E42" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="24">
-      <c r="A43" s="82">
+      <c r="A43" s="74">
         <v>3044</v>
       </c>
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="74" t="s">
         <v>806</v>
       </c>
-      <c r="C43" s="82">
+      <c r="C43" s="74">
         <v>22</v>
       </c>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="74" t="s">
         <v>762</v>
       </c>
-      <c r="E43" s="82">
+      <c r="E43" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="24">
-      <c r="A44" s="82">
+      <c r="A44" s="74">
         <v>3048</v>
       </c>
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="74" t="s">
         <v>810</v>
       </c>
-      <c r="C44" s="82">
+      <c r="C44" s="74">
         <v>28</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="74" t="s">
         <v>762</v>
       </c>
-      <c r="E44" s="82">
+      <c r="E44" s="74">
         <v>3</v>
       </c>
     </row>

--- a/Beginner/Slides/Lec_7_8.xlsx
+++ b/Beginner/Slides/Lec_7_8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237B23B1-486E-9E44-A7EC-CE1A40159209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F161F827-004A-4043-A2A7-455F7AEB1E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="6" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="10" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -20,12 +20,14 @@
     <sheet name="WHERE" sheetId="9" r:id="rId5"/>
     <sheet name="Date" sheetId="12" r:id="rId6"/>
     <sheet name="Group" sheetId="13" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId8"/>
-    <sheet name="Join" sheetId="14" r:id="rId9"/>
-    <sheet name="Project" sheetId="15" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId8"/>
+    <sheet name="JOIN" sheetId="16" r:id="rId9"/>
+    <sheet name="Join_practice" sheetId="14" r:id="rId10"/>
+    <sheet name="Project_arena_of_valor" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Group!$A$1:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Group!$A$1:$E$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet1!$A$1:$E$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="1103">
   <si>
     <t>- 9年软件开发经验，擅长数据库、Python、AI</t>
   </si>
@@ -2715,9 +2717,6 @@
     <t>GROUP BY department_id;</t>
   </si>
   <si>
-    <t>统计每个性别的人数</t>
-  </si>
-  <si>
     <t>SELECT gender, COUNT(*) AS count</t>
   </si>
   <si>
@@ -2746,9 +2745,6 @@
   </si>
   <si>
     <t>GROUP BY teacher_id;</t>
-  </si>
-  <si>
-    <t>统计每个系年龄大于20岁的学生人数</t>
   </si>
   <si>
     <t>SELECT department_id, COUNT(*) AS count</t>
@@ -2918,12 +2914,1762 @@
       <t>COUNT(*) AS student_count</t>
     </r>
   </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>player_id</t>
+  </si>
+  <si>
+    <t>INT (PK)</t>
+  </si>
+  <si>
+    <t>玩家唯一ID</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>玩家昵称</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>玩家所属服务器区域</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>当前等级</t>
+  </si>
+  <si>
+    <t>join_date</t>
+  </si>
+  <si>
+    <t>注册日期</t>
+  </si>
+  <si>
+    <t>CREATE TABLE players (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    player_id INT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    username VARCHAR(30),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    region VARCHAR(20),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    level INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    join_date DATE</t>
+  </si>
+  <si>
+    <t>hero_id</t>
+  </si>
+  <si>
+    <t>英雄唯一ID</t>
+  </si>
+  <si>
+    <t>hero_name</t>
+  </si>
+  <si>
+    <t>英雄名称</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>角色类型（如 Assassin, Tank）</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>操作难度（Easy, Medium, Hard）</t>
+  </si>
+  <si>
+    <t>CREATE TABLE heroes (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hero_id INT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hero_name VARCHAR(30),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    role VARCHAR(20),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    difficulty VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>match_id</t>
+  </si>
+  <si>
+    <t>比赛唯一ID</t>
+  </si>
+  <si>
+    <t>INT (FK)</t>
+  </si>
+  <si>
+    <t>玩家ID，外键关联 players</t>
+  </si>
+  <si>
+    <t>使用的英雄ID，外键关联 heroes</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>比赛结果（Victory/Defeat）</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>击杀数</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>死亡数</t>
+  </si>
+  <si>
+    <t>assists</t>
+  </si>
+  <si>
+    <t>助攻数</t>
+  </si>
+  <si>
+    <t>match_date</t>
+  </si>
+  <si>
+    <t>比赛日期</t>
+  </si>
+  <si>
+    <t>CREATE TABLE matches (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    match_id INT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    player_id INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hero_id INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    result VARCHAR(10),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kills INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    deaths INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    assists INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    match_date DATE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (player_id) REFERENCES players(player_id),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (hero_id) REFERENCES heroes(hero_id)</t>
+  </si>
+  <si>
+    <t>玩家ID</t>
+  </si>
+  <si>
+    <t>friend_id</t>
+  </si>
+  <si>
+    <t>好友的玩家ID</t>
+  </si>
+  <si>
+    <t>CREATE TABLE friends (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    friend_id INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PRIMARY KEY (player_id, friend_id),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (friend_id) REFERENCES players(player_id)</t>
+  </si>
+  <si>
+    <t>✅ 可扩展设计（进阶练习用）</t>
+  </si>
+  <si>
+    <t>你也可以添加以下表：</t>
+  </si>
+  <si>
+    <t>items：装备信息表</t>
+  </si>
+  <si>
+    <t>match_items：比赛中使用的装备（多对多）</t>
+  </si>
+  <si>
+    <t>events：比赛中发生的事件（击杀、防御塔等）</t>
+  </si>
+  <si>
+    <t>1. players （ 玩家信息表）</t>
+  </si>
+  <si>
+    <t>2. heroes （ 英雄信息表）</t>
+  </si>
+  <si>
+    <t>3. matches （ 比赛记录表）</t>
+  </si>
+  <si>
+    <t>4. friends （ 好友关系表（可选））</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🏗 数据库名称： </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>arena_of_valor</t>
+    </r>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>department_name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>CS Department</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Math Department</t>
+  </si>
+  <si>
+    <t>departments</t>
+  </si>
+  <si>
+    <t>teachers</t>
+  </si>
+  <si>
+    <t>teacher_id</t>
+  </si>
+  <si>
+    <t>hire_date</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>is_full_time</t>
+  </si>
+  <si>
+    <t>Dr. Smith</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Dr. Lee</t>
+  </si>
+  <si>
+    <t>Lecturer</t>
+  </si>
+  <si>
+    <t>courses</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>course_name</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>schedule_time</t>
+  </si>
+  <si>
+    <t>is_mandatory</t>
+  </si>
+  <si>
+    <t>SQL Basics</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>enrolled_date</t>
+  </si>
+  <si>
+    <t>gpa</t>
+  </si>
+  <si>
+    <t>enrollments</t>
+  </si>
+  <si>
+    <t>enrollment_id</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>enrolled_at</t>
+  </si>
+  <si>
+    <t>is_passed</t>
+  </si>
+  <si>
+    <t>1️⃣ Inner Join 学生和选课信息</t>
+  </si>
+  <si>
+    <r>
+      <t>EN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List all students and the courses they enrolled in</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 列出所有学生及其所选的课程名称</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT s.name AS student_name, c.course_name</t>
+  </si>
+  <si>
+    <t>FROM students s</t>
+  </si>
+  <si>
+    <t>INNER JOIN enrollments e ON s.student_id = e.student_id</t>
+  </si>
+  <si>
+    <t>INNER JOIN courses c ON e.course_id = c.course_id;</t>
+  </si>
+  <si>
+    <t>2️⃣ Join with Department 学生及其所属系</t>
+  </si>
+  <si>
+    <r>
+      <t>EN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Show student names and their department names</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 显示学生姓名及其所属系名称</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT s.name AS student_name, d.department_name</t>
+  </si>
+  <si>
+    <t>JOIN departments d ON s.department_id = d.department_id;</t>
+  </si>
+  <si>
+    <t>3️⃣ Join Course &amp; Teacher 课程与授课教师</t>
+  </si>
+  <si>
+    <r>
+      <t>EN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Show each course and the teacher who teaches it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 显示每门课程及其授课教师</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT c.course_name, t.name AS teacher_name</t>
+  </si>
+  <si>
+    <t>FROM courses c</t>
+  </si>
+  <si>
+    <t>JOIN teachers t ON c.teacher_id = t.teacher_id;</t>
+  </si>
+  <si>
+    <t>4️⃣ 综合多表 JOIN：学生、课程、成绩</t>
+  </si>
+  <si>
+    <r>
+      <t>EN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List student name, course name, and score</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 列出学生姓名、课程名称与成绩</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT s.name AS student_name, c.course_name, e.score</t>
+  </si>
+  <si>
+    <t>JOIN enrollments e ON s.student_id = e.student_id</t>
+  </si>
+  <si>
+    <t>JOIN courses c ON e.course_id = c.course_id;</t>
+  </si>
+  <si>
+    <t>5️⃣ JOIN with 条件过滤</t>
+  </si>
+  <si>
+    <r>
+      <t>EN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Find all students who scored below 70</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 查找成绩低于 70 分的学生</t>
+    </r>
+  </si>
+  <si>
+    <t>JOIN courses c ON e.course_id = c.course_id</t>
+  </si>
+  <si>
+    <t>WHERE e.score &lt; 70;</t>
+  </si>
+  <si>
+    <t>6️⃣ LEFT JOIN：显示所有课程及是否被选</t>
+  </si>
+  <si>
+    <r>
+      <t>EN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Show all courses and the students who enrolled (if any)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 显示所有课程及其是否有学生选修</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT c.course_name, s.name AS student_name</t>
+  </si>
+  <si>
+    <t>LEFT JOIN enrollments e ON c.course_id = e.course_id</t>
+  </si>
+  <si>
+    <t>LEFT JOIN students s ON e.student_id = s.student_id;</t>
+  </si>
+  <si>
+    <t>7️⃣ FULL OUTER JOIN（SQLite不支持，理论练习）</t>
+  </si>
+  <si>
+    <r>
+      <t>EN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Show all students and all courses, even if there’s no enrollment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 显示所有学生与所有课程，即使没有选课记录</t>
+    </r>
+  </si>
+  <si>
+    <t>（注意：SQLite 不支持 FULL OUTER JOIN，可以用 UNION 代替）</t>
+  </si>
+  <si>
+    <t>解释：</t>
+  </si>
+  <si>
+    <t>语法：</t>
+  </si>
+  <si>
+    <t>SELECT 列名</t>
+  </si>
+  <si>
+    <t>FROM 表1</t>
+  </si>
+  <si>
+    <t>INNER JOIN 表2</t>
+  </si>
+  <si>
+    <t>ON 表1.共同字段 = 表2.共同字段;</t>
+  </si>
+  <si>
+    <t>LEFT JOIN 表2</t>
+  </si>
+  <si>
+    <t>RIGHT JOIN 表2</t>
+  </si>
+  <si>
+    <t>💡注意：RIGHT JOIN 并不是所有数据库都支持（如 SQLite 就不支持），可用 LEFT JOIN 调换左右表替代实现。</t>
+  </si>
+  <si>
+    <t>FULL JOIN 表2</t>
+  </si>
+  <si>
+    <t>⚠ SQLite 不支持 FULL JOIN，可通过 LEFT JOIN UNION RIGHT JOIN 模拟。</t>
+  </si>
+  <si>
+    <t>CROSS JOIN 表2;</t>
+  </si>
+  <si>
+    <t>用于将一张表与自身连接，一般用于比较表中不同的行之间的关系（如员工与上级）。</t>
+  </si>
+  <si>
+    <t>SELECT a.列名, b.列名</t>
+  </si>
+  <si>
+    <t>FROM 表 a</t>
+  </si>
+  <si>
+    <t>INNER JOIN 表 b</t>
+  </si>
+  <si>
+    <t>ON a.共同字段 = b.共同字段;</t>
+  </si>
+  <si>
+    <t>不同的SQL Join 的类型说明</t>
+  </si>
+  <si>
+    <t>🔸1. INNER JOIN（内连接）</t>
+  </si>
+  <si>
+    <t>🔸2. LEFT JOIN / LEFT OUTER JOIN（左连接）</t>
+  </si>
+  <si>
+    <t>🔸3. RIGHT JOIN / RIGHT OUTER JOIN（右连接）</t>
+  </si>
+  <si>
+    <t>🔸6. SELF JOIN（自连接）</t>
+  </si>
+  <si>
+    <t>🔸5. CROSS JOIN（交叉连接）</t>
+  </si>
+  <si>
+    <t>🔸4. FULL JOIN / FULL OUTER JOIN（全连接）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">返回两个表中 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>都有匹配关系的行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>。如果某一行在某个表中没有对应匹配的行，则该行不会出现在结果中。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">返回左表中的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>所有行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>，以及右表中与之匹配的行。如果右表中没有匹配项，则返回结果中右表的字段为 NULL。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">返回右表中的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>所有行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>，以及左表中与之匹配的行。如果左表中没有匹配项，则返回结果中左表的字段为 NULL。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">返回 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>两个表中的所有行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>，不论是否有匹配。对于没有匹配的部分，用 NULL 填充对应字段。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">返回两个表的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>笛卡尔积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：即每个表1的行都与表2的每一行配对。适合用于生成组合。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FROM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>table1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INNER JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>table2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>table1.common_column = table2.common_column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> table1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LEFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> table2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> table1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">common_column </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> table2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>common_column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> table1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> table2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> table1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">common_column </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> table2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>common_column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> table1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CROSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> table2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> table1 a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INNER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> table1 b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7C4DFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">common_column </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0A0A0A"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>common_column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF39ADB5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>col_A</t>
+  </si>
+  <si>
+    <t>col_B</t>
+  </si>
+  <si>
+    <t>A_1</t>
+  </si>
+  <si>
+    <t>A_2</t>
+  </si>
+  <si>
+    <t>A_3</t>
+  </si>
+  <si>
+    <t>A_4</t>
+  </si>
+  <si>
+    <t>A_5</t>
+  </si>
+  <si>
+    <t>A_6</t>
+  </si>
+  <si>
+    <t>B_1</t>
+  </si>
+  <si>
+    <t>B_3</t>
+  </si>
+  <si>
+    <t>B_5</t>
+  </si>
+  <si>
+    <t>B-6</t>
+  </si>
+  <si>
+    <t>B-8</t>
+  </si>
+  <si>
+    <t>B-9</t>
+  </si>
+  <si>
+    <t>B111</t>
+  </si>
+  <si>
+    <t>B333</t>
+  </si>
+  <si>
+    <t>B555</t>
+  </si>
+  <si>
+    <t>B666</t>
+  </si>
+  <si>
+    <t>B888</t>
+  </si>
+  <si>
+    <t>B999</t>
+  </si>
+  <si>
+    <t>A111</t>
+  </si>
+  <si>
+    <t>A222</t>
+  </si>
+  <si>
+    <t>A333</t>
+  </si>
+  <si>
+    <t>A444</t>
+  </si>
+  <si>
+    <t>A555</t>
+  </si>
+  <si>
+    <t>A666</t>
+  </si>
+  <si>
+    <t>Table_A</t>
+  </si>
+  <si>
+    <t>Table_B</t>
+  </si>
+  <si>
+    <t>A_ID (PK)</t>
+  </si>
+  <si>
+    <t>B_ID (PK)</t>
+  </si>
+  <si>
+    <t>B_ID (FK)</t>
+  </si>
+  <si>
+    <t>A_ID (FK)</t>
+  </si>
+  <si>
+    <t>A777</t>
+  </si>
+  <si>
+    <t>A_7</t>
+  </si>
+  <si>
+    <t>B000</t>
+  </si>
+  <si>
+    <t>B-0</t>
+  </si>
+  <si>
+    <r>
+      <t>统计每个性别的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>人数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GROUP BY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="3"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>department_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="3"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>统计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>每个系的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="8"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>年龄大于20岁</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="4"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>学生人数</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="54">
+  <fonts count="76">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3244,8 +4990,144 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0E0E0E"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7C4DFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF39ADB5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3273,12 +5155,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3359,10 +5235,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3479,9 +5356,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3512,8 +5386,38 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3617,6 +5521,71 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1077696</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4346136</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>46506</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F8BBFC5-E118-7B2A-ED38-CA21368A4C4E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6364440" y="23651640"/>
+            <a:ext cx="3268440" cy="2695680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F8BBFC5-E118-7B2A-ED38-CA21368A4C4E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6360120" y="23647320"/>
+              <a:ext cx="3277080" cy="2704320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4279,7 +6248,224 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="SQL Joins Venn Diagram">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4DECB0-3D16-142D-90AC-4D81F6387722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="23571200"/>
+          <a:ext cx="10629900" cy="5943600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A09DA23-AB76-5949-DFBB-1E31DEBAFA32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="29972000"/>
+          <a:ext cx="8128000" cy="11493500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5485C751-5AC2-8F41-A870-ACBD0C395F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12382500" y="23571200"/>
+          <a:ext cx="8826500" cy="11430000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-07-28T14:32:58.231"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">298 11821 24575,'-1'25'0,"-10"35"0,0-9 0,-3 5 0,-5 9 0,-1 3 0,-2 2 0,-1-1 0,3-10 0,1-5 0,-13 29 0,6-17 0,3-16 0,4-11 0,5-7 0,3-9 0,3-7 0,4-7 0,9-8 0,16-8 0,18-6 0,14-5 0,15-4 0,9 1 0,3 1 0,-1 1 0,-8 3 0,-9 1 0,-8 2 0,-9-1 0,-7 4 0,-9 2 0,-6 1 0,-4 1 0,-2-1 0,-3 2 0,-5 1 0,-4 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11433">7880 5231 24575,'53'0'0,"41"0"0,-14 0 0,9 0 0,-22 0 0,3 0 0,0 0 0,2 0 0,0 0 0,-1 0 0,24 0 0,-7 0 0,-22 0 0,-7 0 0,21 0 0,-39 2 0,-20 3 0,-14-2 0,-3 2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4629,8 +6815,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4836,7 +7022,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="78" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4850,7 +7036,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="81"/>
+      <c r="D29" s="78"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -4862,7 +7048,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="81"/>
+      <c r="D30" s="78"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -4874,7 +7060,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="81"/>
+      <c r="D31" s="78"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -4886,7 +7072,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="81"/>
+      <c r="D32" s="78"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -4898,7 +7084,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="81"/>
+      <c r="D33" s="78"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -4910,7 +7096,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="81"/>
+      <c r="D34" s="78"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -4922,7 +7108,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="81"/>
+      <c r="D35" s="78"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -4934,7 +7120,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="81"/>
+      <c r="D36" s="78"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -4946,7 +7132,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="81"/>
+      <c r="D37" s="78"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -4958,7 +7144,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="81"/>
+      <c r="D38" s="78"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -4970,7 +7156,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="81"/>
+      <c r="D39" s="78"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -4982,7 +7168,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="81"/>
+      <c r="D40" s="78"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -4994,7 +7180,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="81"/>
+      <c r="D41" s="78"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -5006,7 +7192,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="81"/>
+      <c r="D42" s="78"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -5018,7 +7204,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="81"/>
+      <c r="D43" s="78"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -5030,7 +7216,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="81"/>
+      <c r="D44" s="78"/>
     </row>
     <row r="52" spans="1:5" ht="27">
       <c r="A52" s="3" t="s">
@@ -5099,12 +7285,12 @@
     </row>
     <row r="62" spans="1:5" ht="23">
       <c r="A62" s="71" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="23">
       <c r="A63" s="71" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B63" s="42"/>
     </row>
@@ -5142,13 +7328,1090 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8922924-0EAE-7840-AA5C-43081E405588}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA3D989-D147-544C-A2CC-C861A819279C}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19">
+      <c r="A1" s="86" t="s">
+        <v>960</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="99" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>953</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>954</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="94">
+        <v>1</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>956</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>957</v>
+      </c>
+      <c r="E3" s="95">
+        <v>45839.375</v>
+      </c>
+      <c r="F3" s="94">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="94">
+        <v>2</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>958</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>959</v>
+      </c>
+      <c r="E4" s="95">
+        <v>45839.375</v>
+      </c>
+      <c r="F4" s="94">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="19">
+      <c r="A7" s="86" t="s">
+        <v>961</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17">
+      <c r="B8" s="99" t="s">
+        <v>962</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>757</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>963</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>964</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>965</v>
+      </c>
+      <c r="G8" s="99" t="s">
+        <v>966</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17">
+      <c r="B9" s="94">
+        <v>1</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>967</v>
+      </c>
+      <c r="D9" s="96">
+        <v>43840</v>
+      </c>
+      <c r="E9" s="94">
+        <v>80000</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>968</v>
+      </c>
+      <c r="G9" s="94">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17">
+      <c r="B10" s="94">
+        <v>2</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>969</v>
+      </c>
+      <c r="D10" s="96">
+        <v>44336</v>
+      </c>
+      <c r="E10" s="94">
+        <v>70000</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>970</v>
+      </c>
+      <c r="G10" s="94">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="19">
+      <c r="A14" s="86" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19">
+      <c r="B15" s="99" t="s">
+        <v>972</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>973</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>974</v>
+      </c>
+      <c r="E15" s="99" t="s">
+        <v>975</v>
+      </c>
+      <c r="F15" s="99" t="s">
+        <v>962</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>760</v>
+      </c>
+      <c r="H15" s="99" t="s">
+        <v>976</v>
+      </c>
+      <c r="I15" s="99" t="s">
+        <v>954</v>
+      </c>
+      <c r="L15" s="86" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="94">
+        <v>1</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>977</v>
+      </c>
+      <c r="D16" s="94">
+        <v>3</v>
+      </c>
+      <c r="E16" s="97">
+        <v>0.375</v>
+      </c>
+      <c r="F16" s="94">
+        <v>1</v>
+      </c>
+      <c r="G16" s="94">
+        <v>1</v>
+      </c>
+      <c r="H16" s="94">
+        <v>1</v>
+      </c>
+      <c r="I16" s="95">
+        <v>45839.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" s="94">
+        <v>2</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>978</v>
+      </c>
+      <c r="D17" s="94">
+        <v>4</v>
+      </c>
+      <c r="E17" s="97">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F17" s="94">
+        <v>2</v>
+      </c>
+      <c r="G17" s="94">
+        <v>2</v>
+      </c>
+      <c r="H17" s="94">
+        <v>0</v>
+      </c>
+      <c r="I17" s="95">
+        <v>45839.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="L18" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="L19" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19">
+      <c r="A20" s="86" t="s">
+        <v>979</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="99" t="s">
+        <v>756</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>757</v>
+      </c>
+      <c r="D21" s="99" t="s">
+        <v>758</v>
+      </c>
+      <c r="E21" s="99" t="s">
+        <v>759</v>
+      </c>
+      <c r="F21" s="99" t="s">
+        <v>980</v>
+      </c>
+      <c r="G21" s="99" t="s">
+        <v>981</v>
+      </c>
+      <c r="H21" s="99" t="s">
+        <v>982</v>
+      </c>
+      <c r="I21" s="99" t="s">
+        <v>760</v>
+      </c>
+      <c r="J21" s="99" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17">
+      <c r="B22" s="94">
+        <v>1</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>761</v>
+      </c>
+      <c r="D22" s="94">
+        <v>22</v>
+      </c>
+      <c r="E22" s="94" t="s">
+        <v>762</v>
+      </c>
+      <c r="F22" s="96">
+        <v>37681</v>
+      </c>
+      <c r="G22" s="96">
+        <v>44440</v>
+      </c>
+      <c r="H22" s="94">
+        <v>3.6</v>
+      </c>
+      <c r="I22" s="94">
+        <v>1</v>
+      </c>
+      <c r="J22" s="94">
+        <v>1</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17">
+      <c r="B23" s="94">
+        <v>2</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>763</v>
+      </c>
+      <c r="D23" s="94">
+        <v>23</v>
+      </c>
+      <c r="E23" s="94" t="s">
+        <v>764</v>
+      </c>
+      <c r="F23" s="96">
+        <v>37448</v>
+      </c>
+      <c r="G23" s="96">
+        <v>44075</v>
+      </c>
+      <c r="H23" s="94">
+        <v>3.2</v>
+      </c>
+      <c r="I23" s="94">
+        <v>2</v>
+      </c>
+      <c r="J23" s="94">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17">
+      <c r="M24" s="15" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="19">
+      <c r="A26" s="93" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="92"/>
+      <c r="B27" s="98" t="s">
+        <v>984</v>
+      </c>
+      <c r="C27" s="98" t="s">
+        <v>756</v>
+      </c>
+      <c r="D27" s="98" t="s">
+        <v>972</v>
+      </c>
+      <c r="E27" s="98" t="s">
+        <v>985</v>
+      </c>
+      <c r="F27" s="98" t="s">
+        <v>986</v>
+      </c>
+      <c r="G27" s="98" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="19">
+      <c r="B28" s="94">
+        <v>1</v>
+      </c>
+      <c r="C28" s="94">
+        <v>1</v>
+      </c>
+      <c r="D28" s="94">
+        <v>1</v>
+      </c>
+      <c r="E28" s="94">
+        <v>90</v>
+      </c>
+      <c r="F28" s="95">
+        <v>45840.375</v>
+      </c>
+      <c r="G28" s="94">
+        <v>1</v>
+      </c>
+      <c r="L28" s="86" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="94">
+        <v>2</v>
+      </c>
+      <c r="C29" s="94">
+        <v>2</v>
+      </c>
+      <c r="D29" s="94">
+        <v>2</v>
+      </c>
+      <c r="E29" s="94">
+        <v>75</v>
+      </c>
+      <c r="F29" s="95">
+        <v>45840.375</v>
+      </c>
+      <c r="G29" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="94">
+        <v>3</v>
+      </c>
+      <c r="C30" s="94">
+        <v>1</v>
+      </c>
+      <c r="D30" s="94">
+        <v>2</v>
+      </c>
+      <c r="E30" s="94">
+        <v>65</v>
+      </c>
+      <c r="F30" s="95">
+        <v>45840.375</v>
+      </c>
+      <c r="G30" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="L31" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="L32" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="35" spans="12:13" ht="17">
+      <c r="M35" s="15" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="36" spans="12:13" ht="17">
+      <c r="M36" s="15" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="37" spans="12:13" ht="17">
+      <c r="M37" s="15" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="41" spans="12:13" ht="19">
+      <c r="L41" s="86" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="44" spans="12:13">
+      <c r="L44" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="45" spans="12:13">
+      <c r="L45" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="48" spans="12:13" ht="17">
+      <c r="M48" s="15" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="49" spans="12:13" ht="17">
+      <c r="M49" s="15" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="50" spans="12:13" ht="17">
+      <c r="M50" s="15" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="51" spans="12:13" ht="17">
+      <c r="M51" s="15" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="55" spans="12:13" ht="19">
+      <c r="L55" s="86" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="58" spans="12:13">
+      <c r="L58" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="59" spans="12:13">
+      <c r="L59" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="62" spans="12:13" ht="17">
+      <c r="M62" s="15" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="63" spans="12:13" ht="17">
+      <c r="M63" s="15" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="64" spans="12:13" ht="17">
+      <c r="M64" s="15" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13" ht="17">
+      <c r="M65" s="15" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="66" spans="12:13" ht="17">
+      <c r="M66" s="15" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="70" spans="12:13" ht="19">
+      <c r="L70" s="86" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="73" spans="12:13">
+      <c r="L73" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="74" spans="12:13">
+      <c r="L74" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="77" spans="12:13" ht="17">
+      <c r="M77" s="15" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="78" spans="12:13" ht="17">
+      <c r="M78" s="15" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="79" spans="12:13" ht="17">
+      <c r="M79" s="15" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="80" spans="12:13" ht="17">
+      <c r="M80" s="15" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="84" spans="12:12" ht="19">
+      <c r="L84" s="86" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="87" spans="12:12">
+      <c r="L87" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="88" spans="12:12">
+      <c r="L88" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="91" spans="12:12">
+      <c r="L91" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8922924-0EAE-7840-AA5C-43081E405588}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="42"/>
+    <col min="6" max="6" width="10" style="42" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23">
+      <c r="A1" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="23">
+      <c r="A3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="A4" s="87" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="G5" s="88" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20">
+      <c r="B6" s="90" t="s">
+        <v>873</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="91" t="s">
+        <v>874</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>875</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>876</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="91" t="s">
+        <v>877</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>878</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>879</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18">
+      <c r="A9" s="87"/>
+      <c r="B9" s="91" t="s">
+        <v>880</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>881</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>882</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="91" t="s">
+        <v>883</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>884</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>885</v>
+      </c>
+      <c r="G10" s="88" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="87"/>
+      <c r="B11" s="91" t="s">
+        <v>886</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>887</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="87" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="G17" s="88" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="90" t="s">
+        <v>873</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="88" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="91" t="s">
+        <v>894</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>875</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>895</v>
+      </c>
+      <c r="G19" s="88" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="91" t="s">
+        <v>896</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>878</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>897</v>
+      </c>
+      <c r="G20" s="88" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="91" t="s">
+        <v>898</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>881</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>899</v>
+      </c>
+      <c r="G21" s="88" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="91" t="s">
+        <v>900</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>901</v>
+      </c>
+      <c r="D22" s="91" t="s">
+        <v>902</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="87" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18">
+      <c r="A28" s="87"/>
+      <c r="B28" s="90" t="s">
+        <v>873</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="88" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="91" t="s">
+        <v>908</v>
+      </c>
+      <c r="C29" s="91" t="s">
+        <v>875</v>
+      </c>
+      <c r="D29" s="91" t="s">
+        <v>909</v>
+      </c>
+      <c r="G29" s="88" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18">
+      <c r="A30" s="87"/>
+      <c r="B30" s="91" t="s">
+        <v>874</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>910</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>911</v>
+      </c>
+      <c r="G30" s="88" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="91" t="s">
+        <v>894</v>
+      </c>
+      <c r="C31" s="91" t="s">
+        <v>910</v>
+      </c>
+      <c r="D31" s="91" t="s">
+        <v>912</v>
+      </c>
+      <c r="G31" s="88" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="91" t="s">
+        <v>913</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>901</v>
+      </c>
+      <c r="D32" s="91" t="s">
+        <v>914</v>
+      </c>
+      <c r="G32" s="88" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" s="91" t="s">
+        <v>915</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>884</v>
+      </c>
+      <c r="D33" s="91" t="s">
+        <v>916</v>
+      </c>
+      <c r="G33" s="88" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="91" t="s">
+        <v>917</v>
+      </c>
+      <c r="C34" s="91" t="s">
+        <v>884</v>
+      </c>
+      <c r="D34" s="91" t="s">
+        <v>918</v>
+      </c>
+      <c r="G34" s="88" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="91" t="s">
+        <v>919</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>884</v>
+      </c>
+      <c r="D35" s="91" t="s">
+        <v>920</v>
+      </c>
+      <c r="G35" s="88" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="91" t="s">
+        <v>921</v>
+      </c>
+      <c r="C36" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="91" t="s">
+        <v>922</v>
+      </c>
+      <c r="G36" s="88" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="G37" s="88" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="G38" s="88" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="G39" s="88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18">
+      <c r="A42" s="87" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="G43" s="88" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="90" t="s">
+        <v>873</v>
+      </c>
+      <c r="C44" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="88" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" s="91" t="s">
+        <v>874</v>
+      </c>
+      <c r="C45" s="91" t="s">
+        <v>910</v>
+      </c>
+      <c r="D45" s="91" t="s">
+        <v>934</v>
+      </c>
+      <c r="G45" s="88" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="91" t="s">
+        <v>935</v>
+      </c>
+      <c r="C46" s="91" t="s">
+        <v>910</v>
+      </c>
+      <c r="D46" s="91" t="s">
+        <v>936</v>
+      </c>
+      <c r="G46" s="88" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="G47" s="88" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="G48" s="88" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="G49" s="88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="23">
+      <c r="A51" s="13" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18">
+      <c r="B53" s="100" t="s">
+        <v>942</v>
+      </c>
+      <c r="C53" s="100"/>
+    </row>
+    <row r="54" spans="1:7" ht="18">
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+    </row>
+    <row r="55" spans="1:7" ht="18">
+      <c r="B55" s="100"/>
+      <c r="C55" s="100" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18">
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+    </row>
+    <row r="57" spans="1:7" ht="18">
+      <c r="B57" s="100"/>
+      <c r="C57" s="100" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18">
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+    </row>
+    <row r="59" spans="1:7" ht="18">
+      <c r="B59" s="100"/>
+      <c r="C59" s="100" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18">
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+    </row>
+    <row r="75" spans="1:1" ht="23">
+      <c r="A75" s="13"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5157,8 +8420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EC6ABD-0E1E-7241-A025-789C197C5335}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView showGridLines="0" topLeftCell="B41" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -5412,10 +8675,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="82" t="s">
+      <c r="C46" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="82"/>
+      <c r="D46" s="79"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -5502,7 +8765,7 @@
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:C57"/>
+      <selection activeCell="B53" sqref="B53:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -5510,8 +8773,8 @@
     <col min="1" max="1" width="9.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="58.33203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="82.5" style="14" customWidth="1"/>
-    <col min="5" max="5" width="33" style="14" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="48.5" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="43"/>
     <col min="7" max="16384" width="10.83203125" style="14"/>
   </cols>
@@ -5635,7 +8898,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="83" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -5649,7 +8912,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="87"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="58" t="s">
         <v>485</v>
       </c>
@@ -5661,7 +8924,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="83" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -5675,7 +8938,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="87"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="26" t="s">
         <v>209</v>
       </c>
@@ -5687,7 +8950,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="83" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -5701,7 +8964,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="87"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
@@ -5741,7 +9004,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="83" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -5755,7 +9018,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="88"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -5767,7 +9030,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="87"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -5807,7 +9070,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="80" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -5821,7 +9084,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="84"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
@@ -5833,7 +9096,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="84"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="26" t="s">
         <v>604</v>
       </c>
@@ -5845,7 +9108,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="84"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="26" t="s">
         <v>248</v>
       </c>
@@ -5857,7 +9120,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="84"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="26" t="s">
         <v>250</v>
       </c>
@@ -5869,7 +9132,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="85"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="26" t="s">
         <v>252</v>
       </c>
@@ -5881,7 +9144,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="80" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -5895,7 +9158,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="84"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="26" t="s">
         <v>259</v>
       </c>
@@ -5907,7 +9170,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="84"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="59" t="s">
         <v>606</v>
       </c>
@@ -5922,7 +9185,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="84"/>
+      <c r="B44" s="81"/>
       <c r="C44" s="26" t="s">
         <v>605</v>
       </c>
@@ -5934,7 +9197,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="84"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="26" t="s">
         <v>264</v>
       </c>
@@ -5949,7 +9212,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="85"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="26" t="s">
         <v>266</v>
       </c>
@@ -5962,7 +9225,7 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="80" t="s">
         <v>268</v>
       </c>
       <c r="C47" s="26" t="s">
@@ -5979,7 +9242,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="84"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="26" t="s">
         <v>272</v>
       </c>
@@ -5992,7 +9255,7 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="84"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="26" t="s">
         <v>275</v>
       </c>
@@ -6007,7 +9270,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="84"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="26" t="s">
         <v>278</v>
       </c>
@@ -6020,7 +9283,7 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="84"/>
+      <c r="B51" s="81"/>
       <c r="C51" s="26" t="s">
         <v>281</v>
       </c>
@@ -6035,7 +9298,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="85"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="26" t="s">
         <v>284</v>
       </c>
@@ -6047,7 +9310,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="83" t="s">
+      <c r="B53" s="80" t="s">
         <v>287</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -6061,7 +9324,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="84"/>
+      <c r="B54" s="81"/>
       <c r="C54" s="48" t="s">
         <v>291</v>
       </c>
@@ -6073,7 +9336,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="84"/>
+      <c r="B55" s="81"/>
       <c r="C55" s="48" t="s">
         <v>294</v>
       </c>
@@ -6085,7 +9348,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="84"/>
+      <c r="B56" s="81"/>
       <c r="C56" s="48" t="s">
         <v>297</v>
       </c>
@@ -6097,19 +9360,19 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="85"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="48" t="s">
         <v>300</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="E57" s="77" t="s">
+      <c r="E57" s="74" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="83" t="s">
+      <c r="B58" s="80" t="s">
         <v>303</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -6123,7 +9386,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="84"/>
+      <c r="B59" s="81"/>
       <c r="C59" s="26" t="s">
         <v>307</v>
       </c>
@@ -6135,7 +9398,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="84"/>
+      <c r="B60" s="81"/>
       <c r="C60" s="26" t="s">
         <v>310</v>
       </c>
@@ -6147,7 +9410,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="85"/>
+      <c r="B61" s="82"/>
       <c r="C61" s="26" t="s">
         <v>313</v>
       </c>
@@ -9088,17 +12351,20 @@
   </sheetPr>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
+    <sheetView zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.83203125" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="21" style="63" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="63" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" style="63" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="63" customWidth="1"/>
     <col min="4" max="4" width="18" style="63" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="63" customWidth="1"/>
-    <col min="6" max="6" width="40.5" style="63" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" style="63"/>
+    <col min="5" max="5" width="12.83203125" style="63" customWidth="1"/>
+    <col min="6" max="6" width="27" style="63" customWidth="1"/>
+    <col min="7" max="7" width="54.5" style="63" customWidth="1"/>
     <col min="8" max="8" width="31.83203125" style="66"/>
     <col min="9" max="16384" width="31.83203125" style="63"/>
   </cols>
@@ -9123,9 +12389,9 @@
         <v>288</v>
       </c>
       <c r="G1" s="69" t="s">
-        <v>873</v>
-      </c>
-      <c r="H1" s="75"/>
+        <v>871</v>
+      </c>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="64">
@@ -9147,8 +12413,8 @@
         <v>291</v>
       </c>
       <c r="G2" s="70"/>
-      <c r="H2" s="76" t="s">
-        <v>874</v>
+      <c r="H2" s="73" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9171,7 +12437,7 @@
         <v>294</v>
       </c>
       <c r="G3" s="65"/>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="73" t="s">
         <v>630</v>
       </c>
     </row>
@@ -9191,7 +12457,7 @@
         <v>297</v>
       </c>
       <c r="G4" s="65"/>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="73" t="s">
         <v>813</v>
       </c>
     </row>
@@ -9213,7 +12479,7 @@
         <v>300</v>
       </c>
       <c r="G5" s="65"/>
-      <c r="H5" s="75"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="64">
@@ -9232,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="70"/>
-      <c r="H6" s="75"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="64">
@@ -9250,11 +12516,11 @@
       <c r="E7" s="64">
         <v>2</v>
       </c>
-      <c r="F7" s="80"/>
+      <c r="F7" s="77"/>
       <c r="G7" s="69" t="s">
-        <v>814</v>
-      </c>
-      <c r="H7" s="78"/>
+        <v>1100</v>
+      </c>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="64">
@@ -9273,8 +12539,8 @@
         <v>3</v>
       </c>
       <c r="G8" s="70"/>
-      <c r="H8" s="79" t="s">
-        <v>815</v>
+      <c r="H8" s="76" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9292,7 +12558,7 @@
       </c>
       <c r="E9" s="64"/>
       <c r="G9" s="65"/>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="76" t="s">
         <v>630</v>
       </c>
     </row>
@@ -9312,10 +12578,10 @@
       <c r="E10" s="64">
         <v>2</v>
       </c>
-      <c r="F10" s="78"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="65"/>
-      <c r="H10" s="79" t="s">
-        <v>816</v>
+      <c r="H10" s="76" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9335,7 +12601,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="65"/>
-      <c r="H11" s="78"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="64">
@@ -9352,7 +12618,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="70"/>
-      <c r="H12" s="78"/>
+      <c r="H12" s="75"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="64">
@@ -9370,8 +12636,8 @@
       <c r="E13" s="64">
         <v>1</v>
       </c>
-      <c r="G13" s="69" t="s">
-        <v>817</v>
+      <c r="G13" s="109" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9392,7 +12658,7 @@
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="67" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9434,7 +12700,7 @@
       </c>
       <c r="G16" s="65"/>
       <c r="H16" s="67" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9490,7 +12756,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="69" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9509,7 +12775,7 @@
       <c r="E20" s="64"/>
       <c r="G20" s="70"/>
       <c r="H20" s="67" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9549,7 +12815,7 @@
       </c>
       <c r="G22" s="65"/>
       <c r="H22" s="67" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9605,7 +12871,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="69" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9626,7 +12892,7 @@
       </c>
       <c r="G26" s="70"/>
       <c r="H26" s="67" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9668,7 +12934,7 @@
       </c>
       <c r="G28" s="65"/>
       <c r="H28" s="67" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9720,8 +12986,8 @@
       <c r="E31" s="64">
         <v>1</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>825</v>
+      <c r="G31" s="112" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9741,8 +13007,8 @@
         <v>3</v>
       </c>
       <c r="G32" s="24"/>
-      <c r="H32" s="67" t="s">
-        <v>826</v>
+      <c r="H32" s="110" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9762,7 +13028,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="24"/>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="110" t="s">
         <v>630</v>
       </c>
     </row>
@@ -9783,8 +13049,8 @@
         <v>1</v>
       </c>
       <c r="G34" s="22"/>
-      <c r="H34" s="67" t="s">
-        <v>827</v>
+      <c r="H34" s="110" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -9804,8 +13070,8 @@
         <v>3</v>
       </c>
       <c r="G35" s="24"/>
-      <c r="H35" s="67" t="s">
-        <v>813</v>
+      <c r="H35" s="110" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -9822,6 +13088,7 @@
         <v>764</v>
       </c>
       <c r="E36" s="64"/>
+      <c r="H36" s="111"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="64">
@@ -9840,6 +13107,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="24"/>
+      <c r="H37" s="111"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="64">
@@ -9858,7 +13126,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -9876,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="67" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -9916,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="67" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -9971,7 +13239,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -9991,7 +13259,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="67" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -10031,7 +13299,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="67" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -10050,7 +13318,7 @@
       <c r="E48" s="64"/>
       <c r="G48" s="24"/>
       <c r="H48" s="67" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -10105,12 +13373,12 @@
         <v>2</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="H52" s="67" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -10120,7 +13388,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="H54" s="67" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -10128,13 +13396,13 @@
     </row>
     <row r="56" spans="1:8">
       <c r="G56" s="22" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="G57" s="24"/>
       <c r="H57" s="67" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -10144,7 +13412,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="H59" s="67" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -10157,13 +13425,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="G62" s="20" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="G63" s="21"/>
       <c r="H63" s="67" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -10171,150 +13439,168 @@
         <v>630</v>
       </c>
     </row>
-    <row r="65" spans="7:8">
+    <row r="65" spans="6:8">
       <c r="H65" s="67" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8">
+      <c r="H66" s="67" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8">
+      <c r="H67" s="67" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="66" spans="7:8">
-      <c r="H66" s="67" t="s">
+    <row r="69" spans="6:8">
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" spans="6:8">
+      <c r="G70" s="20" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="67" spans="7:8">
-      <c r="H67" s="67" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="69" spans="7:8">
-      <c r="G69" s="21"/>
-    </row>
-    <row r="70" spans="7:8">
-      <c r="G70" s="20" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="71" spans="7:8">
+    <row r="71" spans="6:8">
       <c r="G71" s="21"/>
       <c r="H71" s="67" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="72" spans="7:8">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8">
       <c r="H72" s="67" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="73" spans="7:8">
+    <row r="73" spans="6:8">
       <c r="H73" s="67" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8">
+      <c r="H74" s="67" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8">
+      <c r="H75" s="67" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="74" spans="7:8">
-      <c r="H74" s="67" t="s">
+    <row r="77" spans="6:8">
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" spans="6:8">
+      <c r="F78" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="G78" s="25" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="75" spans="7:8">
-      <c r="H75" s="67" t="s">
+    <row r="79" spans="6:8">
+      <c r="F79" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="G79" s="21"/>
+      <c r="H79" s="113" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="77" spans="7:8">
-      <c r="G77" s="21"/>
-    </row>
-    <row r="78" spans="7:8">
-      <c r="G78" s="20" t="s">
+    <row r="80" spans="6:8">
+      <c r="F80" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="H80" s="113" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8">
+      <c r="F81" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="H81" s="113" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="79" spans="7:8">
-      <c r="G79" s="21"/>
-      <c r="H79" s="67" t="s">
+    <row r="82" spans="6:8">
+      <c r="F82" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="H82" s="113" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8">
+      <c r="H83" s="114"/>
+    </row>
+    <row r="84" spans="6:8">
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" spans="6:8">
+      <c r="G85" s="20" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="80" spans="7:8">
-      <c r="H80" s="67" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="81" spans="7:8">
-      <c r="H81" s="67" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="82" spans="7:8">
-      <c r="H82" s="67" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="84" spans="7:8">
-      <c r="G84" s="21"/>
-    </row>
-    <row r="85" spans="7:8">
-      <c r="G85" s="20" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="86" spans="7:8">
+    <row r="86" spans="6:8">
       <c r="G86" s="21"/>
       <c r="H86" s="67" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="87" spans="7:8">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8">
       <c r="H87" s="67" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="88" spans="7:8">
+    <row r="88" spans="6:8">
       <c r="H88" s="67" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="89" spans="7:8">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8">
       <c r="H89" s="67" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="90" spans="6:8">
+      <c r="H90" s="67" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="92" spans="6:8">
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="6:8">
+      <c r="G93" s="20" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="90" spans="7:8">
-      <c r="H90" s="67" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="92" spans="7:8">
-      <c r="G92" s="21"/>
-    </row>
-    <row r="93" spans="7:8">
-      <c r="G93" s="20" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="94" spans="7:8">
+    <row r="94" spans="6:8">
       <c r="G94" s="21"/>
       <c r="H94" s="67" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="95" spans="7:8">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="95" spans="6:8">
       <c r="H95" s="67" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="96" spans="7:8">
+    <row r="96" spans="6:8">
       <c r="H96" s="67" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="97" spans="7:8">
       <c r="H97" s="67" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="98" spans="7:8">
       <c r="H98" s="67" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="100" spans="7:8">
@@ -10322,13 +13608,13 @@
     </row>
     <row r="101" spans="7:8">
       <c r="G101" s="20" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="102" spans="7:8">
       <c r="G102" s="21"/>
       <c r="H102" s="67" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="103" spans="7:8">
@@ -10338,22 +13624,22 @@
     </row>
     <row r="104" spans="7:8">
       <c r="H104" s="67" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="105" spans="7:8">
       <c r="H105" s="67" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="106" spans="7:8">
       <c r="H106" s="67" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="107" spans="7:8">
       <c r="H107" s="67" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="109" spans="7:8">
@@ -10361,13 +13647,13 @@
     </row>
     <row r="110" spans="7:8">
       <c r="G110" s="20" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="111" spans="7:8">
       <c r="G111" s="21"/>
       <c r="H111" s="67" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="112" spans="7:8">
@@ -10377,12 +13663,12 @@
     </row>
     <row r="113" spans="7:8">
       <c r="H113" s="67" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="114" spans="7:8">
       <c r="H114" s="67" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="116" spans="7:8">
@@ -10390,13 +13676,13 @@
     </row>
     <row r="117" spans="7:8">
       <c r="G117" s="20" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="118" spans="7:8">
       <c r="G118" s="21"/>
       <c r="H118" s="67" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="119" spans="7:8">
@@ -10406,12 +13692,12 @@
     </row>
     <row r="120" spans="7:8">
       <c r="H120" s="67" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="121" spans="7:8">
       <c r="H121" s="67" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="123" spans="7:8">
@@ -10419,13 +13705,13 @@
     </row>
     <row r="124" spans="7:8">
       <c r="G124" s="20" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="125" spans="7:8">
       <c r="G125" s="21"/>
       <c r="H125" s="67" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="126" spans="7:8">
@@ -10435,7 +13721,7 @@
     </row>
     <row r="127" spans="7:8">
       <c r="H127" s="67" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="128" spans="7:8">
@@ -10448,13 +13734,13 @@
     </row>
     <row r="131" spans="7:8">
       <c r="G131" s="20" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="132" spans="7:8">
       <c r="G132" s="21"/>
       <c r="H132" s="67" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="133" spans="7:8">
@@ -10464,17 +13750,17 @@
     </row>
     <row r="134" spans="7:8">
       <c r="H134" s="67" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="135" spans="7:8">
       <c r="H135" s="67" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="136" spans="7:8">
       <c r="H136" s="67" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="149" spans="7:7">
@@ -10511,778 +13797,1167 @@
       <c r="G159" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E51" xr:uid="{EE6A4569-7AEF-904E-A35E-2FEE8FCAFC15}"/>
+  <autoFilter ref="A1:E54" xr:uid="{EE6A4569-7AEF-904E-A35E-2FEE8FCAFC15}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53120742-3F66-A846-9F6C-4E1D1E46BC73}">
-  <dimension ref="A1:E44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43134D9F-36B1-7B48-ABDC-05914C1715AD}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24">
-      <c r="A1" s="72">
-        <v>3001</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>761</v>
-      </c>
-      <c r="C1" s="72">
-        <v>20</v>
-      </c>
-      <c r="D1" s="72" t="s">
+      <c r="A1" s="68" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>757</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>759</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24">
+      <c r="A2" s="64">
+        <v>3002</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>763</v>
+      </c>
+      <c r="C2" s="64">
+        <v>21</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E2" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24" hidden="1">
+      <c r="A3" s="64">
+        <v>3004</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64">
+        <v>22</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>762</v>
       </c>
-      <c r="E1" s="72">
+      <c r="E3" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" hidden="1">
+      <c r="A4" s="64">
+        <v>3006</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>767</v>
+      </c>
+      <c r="C4" s="64">
+        <v>24</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E4" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" hidden="1">
+      <c r="A5" s="64">
+        <v>3008</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>769</v>
+      </c>
+      <c r="C5" s="64">
+        <v>23</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E5" s="64"/>
+    </row>
+    <row r="6" spans="1:5" ht="24" hidden="1">
+      <c r="A6" s="64">
+        <v>3010</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>771</v>
+      </c>
+      <c r="C6" s="64">
+        <v>22</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E6" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24">
-      <c r="A2" s="72">
-        <v>3005</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>766</v>
-      </c>
-      <c r="C2" s="72">
-        <v>19</v>
-      </c>
-      <c r="D2" s="72" t="s">
+    <row r="7" spans="1:5" ht="24" hidden="1">
+      <c r="A7" s="64">
+        <v>3012</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>773</v>
+      </c>
+      <c r="C7" s="64">
+        <v>25</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E7" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" hidden="1">
+      <c r="A8" s="64">
+        <v>3014</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>775</v>
+      </c>
+      <c r="C8" s="64">
+        <v>28</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E8" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24">
+      <c r="A9" s="64">
+        <v>3015</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>776</v>
+      </c>
+      <c r="C9" s="64">
+        <v>21</v>
+      </c>
+      <c r="D9" s="64" t="s">
         <v>762</v>
       </c>
-      <c r="E2" s="72">
+      <c r="E9" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24">
-      <c r="A3" s="72">
-        <v>3010</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>771</v>
-      </c>
-      <c r="C3" s="72">
+    <row r="10" spans="1:5" ht="24" hidden="1">
+      <c r="A10" s="64">
+        <v>3016</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>777</v>
+      </c>
+      <c r="C10" s="64">
+        <v>30</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E10" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" hidden="1">
+      <c r="A11" s="64">
+        <v>3017</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>778</v>
+      </c>
+      <c r="C11" s="64">
         <v>22</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D11" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="E11" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24" hidden="1">
+      <c r="A12" s="64">
+        <v>3018</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" s="64">
+        <v>23</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>780</v>
+      </c>
+      <c r="E12" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24">
+      <c r="A13" s="64">
+        <v>3023</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>785</v>
+      </c>
+      <c r="C13" s="64">
+        <v>21</v>
+      </c>
+      <c r="D13" s="64" t="s">
         <v>764</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E13" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24" hidden="1">
+      <c r="A14" s="64">
+        <v>3024</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>786</v>
+      </c>
+      <c r="C14" s="64">
+        <v>22</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="E14" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24">
-      <c r="A4" s="72">
-        <v>3012</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>773</v>
-      </c>
-      <c r="C4" s="72">
+    <row r="15" spans="1:5" ht="24" hidden="1">
+      <c r="A15" s="64">
+        <v>3026</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>788</v>
+      </c>
+      <c r="C15" s="64">
+        <v>23</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="E15" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24" hidden="1">
+      <c r="A16" s="64">
+        <v>3027</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>789</v>
+      </c>
+      <c r="C16" s="64">
         <v>25</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D16" s="64" t="s">
         <v>764</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E16" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24">
-      <c r="A5" s="72">
-        <v>3015</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>776</v>
-      </c>
-      <c r="C5" s="72">
+    <row r="17" spans="1:5" ht="24" hidden="1">
+      <c r="A17" s="64">
+        <v>3028</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>790</v>
+      </c>
+      <c r="C17" s="64">
+        <v>26</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="E17" s="64"/>
+    </row>
+    <row r="18" spans="1:5" ht="24" hidden="1">
+      <c r="A18" s="64">
+        <v>3029</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>791</v>
+      </c>
+      <c r="C18" s="64">
+        <v>24</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E18" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24" hidden="1">
+      <c r="A19" s="64">
+        <v>3031</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>793</v>
+      </c>
+      <c r="C19" s="64">
+        <v>27</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E19" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24" hidden="1">
+      <c r="A20" s="64">
+        <v>3033</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>795</v>
+      </c>
+      <c r="C20" s="64">
+        <v>28</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E20" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24">
+      <c r="A21" s="64">
+        <v>3034</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>796</v>
+      </c>
+      <c r="C21" s="64">
         <v>21</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D21" s="64" t="s">
         <v>762</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E21" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24" hidden="1">
+      <c r="A22" s="64">
+        <v>3035</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>797</v>
+      </c>
+      <c r="C22" s="64">
+        <v>22</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E22" s="64"/>
+    </row>
+    <row r="23" spans="1:5" ht="24" hidden="1">
+      <c r="A23" s="64">
+        <v>3037</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="C23" s="64">
+        <v>23</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E23" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24">
+      <c r="A24" s="64">
+        <v>3039</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>801</v>
+      </c>
+      <c r="C24" s="64">
+        <v>21</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E24" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24" hidden="1">
+      <c r="A25" s="64">
+        <v>3041</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>803</v>
+      </c>
+      <c r="C25" s="64">
+        <v>29</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E25" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24" hidden="1">
+      <c r="A26" s="64">
+        <v>3042</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>804</v>
+      </c>
+      <c r="C26" s="64">
+        <v>24</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="E26" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24" hidden="1">
+      <c r="A27" s="64">
+        <v>3043</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>805</v>
+      </c>
+      <c r="C27" s="64">
+        <v>26</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E27" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24">
-      <c r="A6" s="72">
-        <v>3017</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>778</v>
-      </c>
-      <c r="C6" s="72">
+    <row r="28" spans="1:5" ht="24" hidden="1">
+      <c r="A28" s="64">
+        <v>3044</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>806</v>
+      </c>
+      <c r="C28" s="64">
         <v>22</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D28" s="64" t="s">
         <v>762</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E28" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24" hidden="1">
+      <c r="A29" s="64">
+        <v>3047</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>809</v>
+      </c>
+      <c r="C29" s="64">
+        <v>27</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E29" s="64"/>
+    </row>
+    <row r="30" spans="1:5" ht="24" hidden="1">
+      <c r="A30" s="64">
+        <v>3048</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>810</v>
+      </c>
+      <c r="C30" s="64">
+        <v>28</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>762</v>
+      </c>
+      <c r="E30" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24" hidden="1">
+      <c r="A31" s="64">
+        <v>3049</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>811</v>
+      </c>
+      <c r="C31" s="64">
+        <v>23</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>764</v>
+      </c>
+      <c r="E31" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24">
-      <c r="A7" s="72">
-        <v>3021</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>783</v>
-      </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72" t="s">
+    <row r="32" spans="1:5" ht="24">
+      <c r="A32" s="64">
+        <v>3050</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>812</v>
+      </c>
+      <c r="C32" s="64">
+        <v>21</v>
+      </c>
+      <c r="D32" s="64" t="s">
         <v>762</v>
       </c>
-      <c r="E7" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="24">
-      <c r="A8" s="72">
-        <v>3024</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>786</v>
-      </c>
-      <c r="C8" s="72">
-        <v>22</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E8" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24">
-      <c r="A9" s="72">
-        <v>3027</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>789</v>
-      </c>
-      <c r="C9" s="72">
-        <v>25</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E9" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24">
-      <c r="A10" s="72">
-        <v>3030</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>792</v>
-      </c>
-      <c r="C10" s="72">
-        <v>18</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E10" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24">
-      <c r="A11" s="72">
-        <v>3033</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>795</v>
-      </c>
-      <c r="C11" s="72">
-        <v>28</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E11" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="24">
-      <c r="A12" s="72">
-        <v>3038</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>800</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E12" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="24">
-      <c r="A13" s="72">
-        <v>3040</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>802</v>
-      </c>
-      <c r="C13" s="72">
-        <v>20</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="E13" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="24">
-      <c r="A14" s="72">
-        <v>3043</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>805</v>
-      </c>
-      <c r="C14" s="72">
-        <v>26</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E14" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="24">
-      <c r="A15" s="72">
-        <v>3045</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>807</v>
-      </c>
-      <c r="C15" s="72">
-        <v>20</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E15" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="24">
-      <c r="A16" s="72">
-        <v>3049</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>811</v>
-      </c>
-      <c r="C16" s="72">
-        <v>23</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>764</v>
-      </c>
-      <c r="E16" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="24">
-      <c r="A17" s="73">
-        <v>3002</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>763</v>
-      </c>
-      <c r="C17" s="73">
-        <v>21</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>764</v>
-      </c>
-      <c r="E17" s="73">
+      <c r="E32" s="64">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24">
-      <c r="A18" s="73">
-        <v>3006</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>767</v>
-      </c>
-      <c r="C18" s="73">
-        <v>24</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>764</v>
-      </c>
-      <c r="E18" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="24">
-      <c r="A19" s="73">
-        <v>3009</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>770</v>
-      </c>
-      <c r="C19" s="73">
-        <v>20</v>
-      </c>
-      <c r="D19" s="73" t="s">
-        <v>762</v>
-      </c>
-      <c r="E19" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="24">
-      <c r="A20" s="73">
-        <v>3013</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>774</v>
-      </c>
-      <c r="C20" s="73">
-        <v>20</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>762</v>
-      </c>
-      <c r="E20" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="24">
-      <c r="A21" s="73">
-        <v>3016</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>777</v>
-      </c>
-      <c r="C21" s="73">
-        <v>30</v>
-      </c>
-      <c r="D21" s="73" t="s">
-        <v>764</v>
-      </c>
-      <c r="E21" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="24">
-      <c r="A22" s="73">
-        <v>3018</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>779</v>
-      </c>
-      <c r="C22" s="73">
-        <v>23</v>
-      </c>
-      <c r="D22" s="73" t="s">
-        <v>780</v>
-      </c>
-      <c r="E22" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="24">
-      <c r="A23" s="73">
-        <v>3022</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>784</v>
-      </c>
-      <c r="C23" s="73">
-        <v>20</v>
-      </c>
-      <c r="D23" s="73" t="s">
-        <v>762</v>
-      </c>
-      <c r="E23" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="24">
-      <c r="A24" s="73">
-        <v>3025</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>787</v>
-      </c>
-      <c r="C24" s="73">
-        <v>20</v>
-      </c>
-      <c r="D24" s="73" t="s">
-        <v>764</v>
-      </c>
-      <c r="E24" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="24">
-      <c r="A25" s="73">
-        <v>3029</v>
-      </c>
-      <c r="B25" s="73" t="s">
-        <v>791</v>
-      </c>
-      <c r="C25" s="73">
-        <v>24</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>764</v>
-      </c>
-      <c r="E25" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="24">
-      <c r="A26" s="73">
-        <v>3032</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>794</v>
-      </c>
-      <c r="C26" s="73">
-        <v>19</v>
-      </c>
-      <c r="D26" s="73" t="s">
-        <v>762</v>
-      </c>
-      <c r="E26" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="24">
-      <c r="A27" s="73">
-        <v>3036</v>
-      </c>
-      <c r="B27" s="73" t="s">
-        <v>798</v>
-      </c>
-      <c r="C27" s="73">
-        <v>20</v>
-      </c>
-      <c r="D27" s="73" t="s">
-        <v>762</v>
-      </c>
-      <c r="E27" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="24">
-      <c r="A28" s="73">
-        <v>3039</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>801</v>
-      </c>
-      <c r="C28" s="73">
-        <v>21</v>
-      </c>
-      <c r="D28" s="73" t="s">
-        <v>764</v>
-      </c>
-      <c r="E28" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="24">
-      <c r="A29" s="73">
-        <v>3042</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>804</v>
-      </c>
-      <c r="C29" s="73">
-        <v>24</v>
-      </c>
-      <c r="D29" s="73" t="s">
-        <v>762</v>
-      </c>
-      <c r="E29" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="24">
-      <c r="A30" s="73">
-        <v>3046</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>808</v>
-      </c>
-      <c r="C30" s="73">
-        <v>19</v>
-      </c>
-      <c r="D30" s="73" t="s">
-        <v>762</v>
-      </c>
-      <c r="E30" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="24">
-      <c r="A31" s="73">
-        <v>3050</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>812</v>
-      </c>
-      <c r="C31" s="73">
-        <v>21</v>
-      </c>
-      <c r="D31" s="73" t="s">
-        <v>762</v>
-      </c>
-      <c r="E31" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="24">
-      <c r="A32" s="74">
-        <v>3004</v>
-      </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74">
-        <v>22</v>
-      </c>
-      <c r="D32" s="74" t="s">
-        <v>762</v>
-      </c>
-      <c r="E32" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="24">
-      <c r="A33" s="74">
-        <v>3007</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>768</v>
-      </c>
-      <c r="C33" s="74">
-        <v>20</v>
-      </c>
-      <c r="D33" s="74" t="s">
-        <v>762</v>
-      </c>
-      <c r="E33" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="24">
-      <c r="A34" s="74">
-        <v>3011</v>
-      </c>
-      <c r="B34" s="74" t="s">
-        <v>772</v>
-      </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74" t="s">
-        <v>762</v>
-      </c>
-      <c r="E34" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="24">
-      <c r="A35" s="74">
-        <v>3014</v>
-      </c>
-      <c r="B35" s="74" t="s">
-        <v>775</v>
-      </c>
-      <c r="C35" s="74">
-        <v>28</v>
-      </c>
-      <c r="D35" s="74" t="s">
-        <v>764</v>
-      </c>
-      <c r="E35" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="24">
-      <c r="A36" s="74">
-        <v>3020</v>
-      </c>
-      <c r="B36" s="74" t="s">
-        <v>782</v>
-      </c>
-      <c r="C36" s="74">
-        <v>19</v>
-      </c>
-      <c r="D36" s="74" t="s">
-        <v>764</v>
-      </c>
-      <c r="E36" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="24">
-      <c r="A37" s="74">
-        <v>3023</v>
-      </c>
-      <c r="B37" s="74" t="s">
-        <v>785</v>
-      </c>
-      <c r="C37" s="74">
-        <v>21</v>
-      </c>
-      <c r="D37" s="74" t="s">
-        <v>764</v>
-      </c>
-      <c r="E37" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="24">
-      <c r="A38" s="74">
-        <v>3026</v>
-      </c>
-      <c r="B38" s="74" t="s">
-        <v>788</v>
-      </c>
-      <c r="C38" s="74">
-        <v>23</v>
-      </c>
-      <c r="D38" s="74" t="s">
-        <v>762</v>
-      </c>
-      <c r="E38" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="24">
-      <c r="A39" s="74">
-        <v>3031</v>
-      </c>
-      <c r="B39" s="74" t="s">
-        <v>793</v>
-      </c>
-      <c r="C39" s="74">
-        <v>27</v>
-      </c>
-      <c r="D39" s="74" t="s">
-        <v>764</v>
-      </c>
-      <c r="E39" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="24">
-      <c r="A40" s="74">
-        <v>3034</v>
-      </c>
-      <c r="B40" s="74" t="s">
-        <v>796</v>
-      </c>
-      <c r="C40" s="74">
-        <v>21</v>
-      </c>
-      <c r="D40" s="74" t="s">
-        <v>762</v>
-      </c>
-      <c r="E40" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="24">
-      <c r="A41" s="74">
-        <v>3037</v>
-      </c>
-      <c r="B41" s="74" t="s">
-        <v>799</v>
-      </c>
-      <c r="C41" s="74">
-        <v>23</v>
-      </c>
-      <c r="D41" s="74" t="s">
-        <v>764</v>
-      </c>
-      <c r="E41" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="24">
-      <c r="A42" s="74">
-        <v>3041</v>
-      </c>
-      <c r="B42" s="74" t="s">
-        <v>803</v>
-      </c>
-      <c r="C42" s="74">
-        <v>29</v>
-      </c>
-      <c r="D42" s="74" t="s">
-        <v>764</v>
-      </c>
-      <c r="E42" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="24">
-      <c r="A43" s="74">
-        <v>3044</v>
-      </c>
-      <c r="B43" s="74" t="s">
-        <v>806</v>
-      </c>
-      <c r="C43" s="74">
-        <v>22</v>
-      </c>
-      <c r="D43" s="74" t="s">
-        <v>762</v>
-      </c>
-      <c r="E43" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="24">
-      <c r="A44" s="74">
-        <v>3048</v>
-      </c>
-      <c r="B44" s="74" t="s">
-        <v>810</v>
-      </c>
-      <c r="C44" s="74">
-        <v>28</v>
-      </c>
-      <c r="D44" s="74" t="s">
-        <v>762</v>
-      </c>
-      <c r="E44" s="74">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:E32" xr:uid="{43134D9F-36B1-7B48-ABDC-05914C1715AD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="21"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA3D989-D147-544C-A2CC-C861A819279C}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53120742-3F66-A846-9F6C-4E1D1E46BC73}">
+  <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="102"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="13" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="14"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="13" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="23">
+      <c r="A6" s="13"/>
+      <c r="B6" s="47" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="23">
+      <c r="A7" s="14"/>
+      <c r="B7" s="46"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="47" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H9" s="103" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="46" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H10" s="103" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="46" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H11" s="103" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="46" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H12" s="103" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="13" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="47" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" ht="23">
+      <c r="A20" s="14"/>
+      <c r="B20" s="47" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="23">
+      <c r="A21" s="13"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H21" s="103" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="14"/>
+      <c r="C22" s="46" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13"/>
+      <c r="C23" s="46" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="14"/>
+      <c r="C24" s="46" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="14"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="23">
+      <c r="A30" s="13"/>
+      <c r="B30" s="47" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="23">
+      <c r="A31" s="13"/>
+      <c r="B31" s="46"/>
+    </row>
+    <row r="32" spans="1:8" ht="23">
+      <c r="A32" s="14"/>
+      <c r="B32" s="47" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="23">
+      <c r="A33" s="13"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H33" s="103" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="14"/>
+      <c r="C34" s="46" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="14"/>
+      <c r="C35" s="46" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="C36" s="46" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" s="46"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" s="101" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="13" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" ht="23">
+      <c r="A44" s="13"/>
+      <c r="B44" s="47" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="23">
+      <c r="A45" s="13"/>
+      <c r="B45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="23">
+      <c r="A46" s="14"/>
+      <c r="B46" s="47" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="23">
+      <c r="A47" s="13"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H47" s="103" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="14"/>
+      <c r="C48" s="46" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="14"/>
+      <c r="C49" s="46" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="C50" s="46" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" s="46"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" s="101" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="13" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="14"/>
+    </row>
+    <row r="58" spans="1:8" ht="23">
+      <c r="A58" s="13"/>
+      <c r="B58" s="47" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="23">
+      <c r="A59" s="14"/>
+      <c r="B59" s="46"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" s="47" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" s="46"/>
+      <c r="C61" s="46" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H61" s="103" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="C62" s="46" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="C63" s="46" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="13" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="14"/>
+    </row>
+    <row r="69" spans="1:8" ht="23">
+      <c r="A69" s="13"/>
+      <c r="B69" s="47" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="23">
+      <c r="A70" s="14"/>
+      <c r="B70" s="46"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" s="47" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="B72" s="46"/>
+      <c r="C72" s="46" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H72" s="103" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="C73" s="46" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="C74" s="46" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="C75" s="46" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="14"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="14"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="14"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="14"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141"/>
+      <c r="C141" s="104" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D141" s="105" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E141" s="99" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142"/>
+      <c r="C142" s="94" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D142" s="94" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E142" s="94" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143"/>
+      <c r="C143" s="94" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D143" s="94" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E143" s="94" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144"/>
+      <c r="C144" s="94" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D144" s="94" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E144" s="94" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145"/>
+      <c r="C145" s="94" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D145" s="94" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E145" s="94" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146"/>
+      <c r="C146" s="94" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D146" s="94" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E146" s="94" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147"/>
+      <c r="C147" s="94" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D147" s="94" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E147" s="94" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148"/>
+      <c r="C148" s="107" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D148" s="106" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E148" s="108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151"/>
+      <c r="C151" s="104" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D151" s="105" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E151" s="99" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152"/>
+      <c r="C152" s="94" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D152" s="94" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E152" s="94" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153"/>
+      <c r="C153" s="94" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D153" s="94" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E153" s="94" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154"/>
+      <c r="C154" s="94" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D154" s="94" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E154" s="94" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155"/>
+      <c r="C155" s="94" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D155" s="94" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E155" s="94" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156"/>
+      <c r="C156" s="94" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D156" s="94" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E156" s="94" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157"/>
+      <c r="C157" s="94" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D157" s="94" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E157" s="94" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158"/>
+      <c r="C158" s="107" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D158" s="106" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E158" s="108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Beginner/Slides/Lec_7_8.xlsx
+++ b/Beginner/Slides/Lec_7_8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F161F827-004A-4043-A2A7-455F7AEB1E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13889F4-236F-BC4E-B26D-644BF5301F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="10" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="6" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -5239,7 +5239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5362,6 +5362,34 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5386,35 +5414,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5536,8 +5535,8 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>46506</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Ink 22">
@@ -5556,7 +5555,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Ink 22">
@@ -7022,7 +7021,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="106" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7036,7 +7035,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="78"/>
+      <c r="D29" s="106"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -7048,7 +7047,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="78"/>
+      <c r="D30" s="106"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -7060,7 +7059,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="78"/>
+      <c r="D31" s="106"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -7072,7 +7071,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="78"/>
+      <c r="D32" s="106"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -7084,7 +7083,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="78"/>
+      <c r="D33" s="106"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -7096,7 +7095,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="78"/>
+      <c r="D34" s="106"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -7108,7 +7107,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="78"/>
+      <c r="D35" s="106"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -7120,7 +7119,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="78"/>
+      <c r="D36" s="106"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -7132,7 +7131,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="78"/>
+      <c r="D37" s="106"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -7144,7 +7143,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="78"/>
+      <c r="D38" s="106"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -7156,7 +7155,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="78"/>
+      <c r="D39" s="106"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -7168,7 +7167,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="78"/>
+      <c r="D40" s="106"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -7180,7 +7179,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="78"/>
+      <c r="D41" s="106"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -7192,7 +7191,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="78"/>
+      <c r="D42" s="106"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -7204,7 +7203,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="78"/>
+      <c r="D43" s="106"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -7216,7 +7215,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="78"/>
+      <c r="D44" s="106"/>
     </row>
     <row r="52" spans="1:5" ht="27">
       <c r="A52" s="3" t="s">
@@ -7350,44 +7349,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="78" t="s">
         <v>960</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="L1" s="78" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="91" t="s">
         <v>760</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="91" t="s">
         <v>952</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="91" t="s">
         <v>953</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="91" t="s">
         <v>954</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="91" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="94">
+      <c r="B3" s="86">
         <v>1</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="86" t="s">
         <v>956</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="86" t="s">
         <v>957</v>
       </c>
-      <c r="E3" s="95">
+      <c r="E3" s="87">
         <v>45839.375</v>
       </c>
-      <c r="F3" s="94">
+      <c r="F3" s="86">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -7395,19 +7394,19 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="94">
+      <c r="B4" s="86">
         <v>2</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="86" t="s">
         <v>958</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="86" t="s">
         <v>959</v>
       </c>
-      <c r="E4" s="95">
+      <c r="E4" s="87">
         <v>45839.375</v>
       </c>
-      <c r="F4" s="94">
+      <c r="F4" s="86">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -7415,7 +7414,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="19">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="78" t="s">
         <v>961</v>
       </c>
       <c r="M7" s="15" t="s">
@@ -7423,22 +7422,22 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="91" t="s">
         <v>962</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="91" t="s">
         <v>757</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="91" t="s">
         <v>963</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="91" t="s">
         <v>964</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="91" t="s">
         <v>965</v>
       </c>
-      <c r="G8" s="99" t="s">
+      <c r="G8" s="91" t="s">
         <v>966</v>
       </c>
       <c r="M8" s="15" t="s">
@@ -7446,22 +7445,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="17">
-      <c r="B9" s="94">
+      <c r="B9" s="86">
         <v>1</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="86" t="s">
         <v>967</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="88">
         <v>43840</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="86">
         <v>80000</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="86" t="s">
         <v>968</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="86">
         <v>1</v>
       </c>
       <c r="M9" s="15" t="s">
@@ -7469,22 +7468,22 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="17">
-      <c r="B10" s="94">
+      <c r="B10" s="86">
         <v>2</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="86" t="s">
         <v>969</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="88">
         <v>44336</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="86">
         <v>70000</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="86" t="s">
         <v>970</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="86">
         <v>1</v>
       </c>
       <c r="M10" s="15" t="s">
@@ -7492,88 +7491,88 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="19">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="78" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="91" t="s">
         <v>972</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="91" t="s">
         <v>973</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="91" t="s">
         <v>974</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="91" t="s">
         <v>975</v>
       </c>
-      <c r="F15" s="99" t="s">
+      <c r="F15" s="91" t="s">
         <v>962</v>
       </c>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="91" t="s">
         <v>760</v>
       </c>
-      <c r="H15" s="99" t="s">
+      <c r="H15" s="91" t="s">
         <v>976</v>
       </c>
-      <c r="I15" s="99" t="s">
+      <c r="I15" s="91" t="s">
         <v>954</v>
       </c>
-      <c r="L15" s="86" t="s">
+      <c r="L15" s="78" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="94">
+      <c r="B16" s="86">
         <v>1</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="86" t="s">
         <v>977</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="86">
         <v>3</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E16" s="89">
         <v>0.375</v>
       </c>
-      <c r="F16" s="94">
+      <c r="F16" s="86">
         <v>1</v>
       </c>
-      <c r="G16" s="94">
+      <c r="G16" s="86">
         <v>1</v>
       </c>
-      <c r="H16" s="94">
+      <c r="H16" s="86">
         <v>1</v>
       </c>
-      <c r="I16" s="95">
+      <c r="I16" s="87">
         <v>45839.375</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="B17" s="94">
+      <c r="B17" s="86">
         <v>2</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="86" t="s">
         <v>978</v>
       </c>
-      <c r="D17" s="94">
+      <c r="D17" s="86">
         <v>4</v>
       </c>
-      <c r="E17" s="97">
+      <c r="E17" s="89">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="86">
         <v>2</v>
       </c>
-      <c r="G17" s="94">
+      <c r="G17" s="86">
         <v>2</v>
       </c>
-      <c r="H17" s="94">
+      <c r="H17" s="86">
         <v>0</v>
       </c>
-      <c r="I17" s="95">
+      <c r="I17" s="87">
         <v>45839.375</v>
       </c>
     </row>
@@ -7588,66 +7587,66 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="19">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="78" t="s">
         <v>979</v>
       </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="91" t="s">
         <v>756</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="91" t="s">
         <v>757</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="91" t="s">
         <v>758</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="91" t="s">
         <v>759</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="91" t="s">
         <v>980</v>
       </c>
-      <c r="G21" s="99" t="s">
+      <c r="G21" s="91" t="s">
         <v>981</v>
       </c>
-      <c r="H21" s="99" t="s">
+      <c r="H21" s="91" t="s">
         <v>982</v>
       </c>
-      <c r="I21" s="99" t="s">
+      <c r="I21" s="91" t="s">
         <v>760</v>
       </c>
-      <c r="J21" s="99" t="s">
+      <c r="J21" s="91" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17">
-      <c r="B22" s="94">
+      <c r="B22" s="86">
         <v>1</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="86" t="s">
         <v>761</v>
       </c>
-      <c r="D22" s="94">
+      <c r="D22" s="86">
         <v>22</v>
       </c>
-      <c r="E22" s="94" t="s">
+      <c r="E22" s="86" t="s">
         <v>762</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F22" s="88">
         <v>37681</v>
       </c>
-      <c r="G22" s="96">
+      <c r="G22" s="88">
         <v>44440</v>
       </c>
-      <c r="H22" s="94">
+      <c r="H22" s="86">
         <v>3.6</v>
       </c>
-      <c r="I22" s="94">
+      <c r="I22" s="86">
         <v>1</v>
       </c>
-      <c r="J22" s="94">
+      <c r="J22" s="86">
         <v>1</v>
       </c>
       <c r="M22" s="15" t="s">
@@ -7655,31 +7654,31 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="17">
-      <c r="B23" s="94">
+      <c r="B23" s="86">
         <v>2</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="86" t="s">
         <v>763</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="86">
         <v>23</v>
       </c>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="86" t="s">
         <v>764</v>
       </c>
-      <c r="F23" s="96">
+      <c r="F23" s="88">
         <v>37448</v>
       </c>
-      <c r="G23" s="96">
+      <c r="G23" s="88">
         <v>44075</v>
       </c>
-      <c r="H23" s="94">
+      <c r="H23" s="86">
         <v>3.2</v>
       </c>
-      <c r="I23" s="94">
+      <c r="I23" s="86">
         <v>2</v>
       </c>
-      <c r="J23" s="94">
+      <c r="J23" s="86">
         <v>1</v>
       </c>
       <c r="M23" s="15" t="s">
@@ -7692,91 +7691,91 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="19">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="85" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="92"/>
-      <c r="B27" s="98" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="90" t="s">
         <v>984</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="90" t="s">
         <v>756</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="90" t="s">
         <v>972</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="90" t="s">
         <v>985</v>
       </c>
-      <c r="F27" s="98" t="s">
+      <c r="F27" s="90" t="s">
         <v>986</v>
       </c>
-      <c r="G27" s="98" t="s">
+      <c r="G27" s="90" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19">
-      <c r="B28" s="94">
+      <c r="B28" s="86">
         <v>1</v>
       </c>
-      <c r="C28" s="94">
+      <c r="C28" s="86">
         <v>1</v>
       </c>
-      <c r="D28" s="94">
+      <c r="D28" s="86">
         <v>1</v>
       </c>
-      <c r="E28" s="94">
+      <c r="E28" s="86">
         <v>90</v>
       </c>
-      <c r="F28" s="95">
+      <c r="F28" s="87">
         <v>45840.375</v>
       </c>
-      <c r="G28" s="94">
+      <c r="G28" s="86">
         <v>1</v>
       </c>
-      <c r="L28" s="86" t="s">
+      <c r="L28" s="78" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="B29" s="94">
+      <c r="B29" s="86">
         <v>2</v>
       </c>
-      <c r="C29" s="94">
+      <c r="C29" s="86">
         <v>2</v>
       </c>
-      <c r="D29" s="94">
+      <c r="D29" s="86">
         <v>2</v>
       </c>
-      <c r="E29" s="94">
+      <c r="E29" s="86">
         <v>75</v>
       </c>
-      <c r="F29" s="95">
+      <c r="F29" s="87">
         <v>45840.375</v>
       </c>
-      <c r="G29" s="94">
+      <c r="G29" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="B30" s="94">
+      <c r="B30" s="86">
         <v>3</v>
       </c>
-      <c r="C30" s="94">
+      <c r="C30" s="86">
         <v>1</v>
       </c>
-      <c r="D30" s="94">
+      <c r="D30" s="86">
         <v>2</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="86">
         <v>65</v>
       </c>
-      <c r="F30" s="95">
+      <c r="F30" s="87">
         <v>45840.375</v>
       </c>
-      <c r="G30" s="94">
+      <c r="G30" s="86">
         <v>1</v>
       </c>
     </row>
@@ -7806,7 +7805,7 @@
       </c>
     </row>
     <row r="41" spans="12:13" ht="19">
-      <c r="L41" s="86" t="s">
+      <c r="L41" s="78" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -7841,7 +7840,7 @@
       </c>
     </row>
     <row r="55" spans="12:13" ht="19">
-      <c r="L55" s="86" t="s">
+      <c r="L55" s="78" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -7881,7 +7880,7 @@
       </c>
     </row>
     <row r="70" spans="12:13" ht="19">
-      <c r="L70" s="86" t="s">
+      <c r="L70" s="78" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -7916,7 +7915,7 @@
       </c>
     </row>
     <row r="84" spans="12:12" ht="19">
-      <c r="L84" s="86" t="s">
+      <c r="L84" s="78" t="s">
         <v>1023</v>
       </c>
     </row>
@@ -7947,7 +7946,7 @@
   </sheetPr>
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="109" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -7965,7 +7964,7 @@
       <c r="A1" s="13" t="s">
         <v>950</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="81" t="s">
         <v>951</v>
       </c>
     </row>
@@ -7973,393 +7972,393 @@
       <c r="A3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="18">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="79" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="80" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="82" t="s">
         <v>873</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="80" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="83" t="s">
         <v>874</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="83" t="s">
         <v>875</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="83" t="s">
         <v>876</v>
       </c>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="80" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="83" t="s">
         <v>877</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="83" t="s">
         <v>878</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="83" t="s">
         <v>879</v>
       </c>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="80" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18">
-      <c r="A9" s="87"/>
-      <c r="B9" s="91" t="s">
+      <c r="A9" s="79"/>
+      <c r="B9" s="83" t="s">
         <v>880</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="83" t="s">
         <v>881</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="83" t="s">
         <v>882</v>
       </c>
-      <c r="G9" s="88" t="s">
+      <c r="G9" s="80" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="83" t="s">
         <v>883</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="83" t="s">
         <v>884</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="83" t="s">
         <v>885</v>
       </c>
-      <c r="G10" s="88" t="s">
+      <c r="G10" s="80" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18">
-      <c r="A11" s="87"/>
-      <c r="B11" s="91" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="83" t="s">
         <v>886</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="83" t="s">
         <v>887</v>
       </c>
-      <c r="G11" s="88" t="s">
+      <c r="G11" s="80" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="79" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="G17" s="88" t="s">
+      <c r="G17" s="80" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="82" t="s">
         <v>873</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="88" t="s">
+      <c r="G18" s="80" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="83" t="s">
         <v>894</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="83" t="s">
         <v>875</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="83" t="s">
         <v>895</v>
       </c>
-      <c r="G19" s="88" t="s">
+      <c r="G19" s="80" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="83" t="s">
         <v>896</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="83" t="s">
         <v>878</v>
       </c>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="83" t="s">
         <v>897</v>
       </c>
-      <c r="G20" s="88" t="s">
+      <c r="G20" s="80" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="83" t="s">
         <v>898</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="83" t="s">
         <v>881</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="83" t="s">
         <v>899</v>
       </c>
-      <c r="G21" s="88" t="s">
+      <c r="G21" s="80" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="83" t="s">
         <v>900</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="83" t="s">
         <v>901</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="83" t="s">
         <v>902</v>
       </c>
-      <c r="G22" s="88" t="s">
+      <c r="G22" s="80" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="79" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18">
-      <c r="A28" s="87"/>
-      <c r="B28" s="90" t="s">
+      <c r="A28" s="79"/>
+      <c r="B28" s="82" t="s">
         <v>873</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="90" t="s">
+      <c r="D28" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="88" t="s">
+      <c r="G28" s="80" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="83" t="s">
         <v>908</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="83" t="s">
         <v>875</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="D29" s="83" t="s">
         <v>909</v>
       </c>
-      <c r="G29" s="88" t="s">
+      <c r="G29" s="80" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18">
-      <c r="A30" s="87"/>
-      <c r="B30" s="91" t="s">
+      <c r="A30" s="79"/>
+      <c r="B30" s="83" t="s">
         <v>874</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="83" t="s">
         <v>910</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="83" t="s">
         <v>911</v>
       </c>
-      <c r="G30" s="88" t="s">
+      <c r="G30" s="80" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="83" t="s">
         <v>894</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="83" t="s">
         <v>910</v>
       </c>
-      <c r="D31" s="91" t="s">
+      <c r="D31" s="83" t="s">
         <v>912</v>
       </c>
-      <c r="G31" s="88" t="s">
+      <c r="G31" s="80" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="83" t="s">
         <v>913</v>
       </c>
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="83" t="s">
         <v>901</v>
       </c>
-      <c r="D32" s="91" t="s">
+      <c r="D32" s="83" t="s">
         <v>914</v>
       </c>
-      <c r="G32" s="88" t="s">
+      <c r="G32" s="80" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="83" t="s">
         <v>915</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="83" t="s">
         <v>884</v>
       </c>
-      <c r="D33" s="91" t="s">
+      <c r="D33" s="83" t="s">
         <v>916</v>
       </c>
-      <c r="G33" s="88" t="s">
+      <c r="G33" s="80" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="83" t="s">
         <v>917</v>
       </c>
-      <c r="C34" s="91" t="s">
+      <c r="C34" s="83" t="s">
         <v>884</v>
       </c>
-      <c r="D34" s="91" t="s">
+      <c r="D34" s="83" t="s">
         <v>918</v>
       </c>
-      <c r="G34" s="88" t="s">
+      <c r="G34" s="80" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="83" t="s">
         <v>919</v>
       </c>
-      <c r="C35" s="91" t="s">
+      <c r="C35" s="83" t="s">
         <v>884</v>
       </c>
-      <c r="D35" s="91" t="s">
+      <c r="D35" s="83" t="s">
         <v>920</v>
       </c>
-      <c r="G35" s="88" t="s">
+      <c r="G35" s="80" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="83" t="s">
         <v>921</v>
       </c>
-      <c r="C36" s="91" t="s">
+      <c r="C36" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="91" t="s">
+      <c r="D36" s="83" t="s">
         <v>922</v>
       </c>
-      <c r="G36" s="88" t="s">
+      <c r="G36" s="80" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="G37" s="88" t="s">
+      <c r="G37" s="80" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="G38" s="88" t="s">
+      <c r="G38" s="80" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="G39" s="88" t="s">
+      <c r="G39" s="80" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="79" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="G43" s="88" t="s">
+      <c r="G43" s="80" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="82" t="s">
         <v>873</v>
       </c>
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="D44" s="90" t="s">
+      <c r="D44" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="88" t="s">
+      <c r="G44" s="80" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="83" t="s">
         <v>874</v>
       </c>
-      <c r="C45" s="91" t="s">
+      <c r="C45" s="83" t="s">
         <v>910</v>
       </c>
-      <c r="D45" s="91" t="s">
+      <c r="D45" s="83" t="s">
         <v>934</v>
       </c>
-      <c r="G45" s="88" t="s">
+      <c r="G45" s="80" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="B46" s="91" t="s">
+      <c r="B46" s="83" t="s">
         <v>935</v>
       </c>
-      <c r="C46" s="91" t="s">
+      <c r="C46" s="83" t="s">
         <v>910</v>
       </c>
-      <c r="D46" s="91" t="s">
+      <c r="D46" s="83" t="s">
         <v>936</v>
       </c>
-      <c r="G46" s="88" t="s">
+      <c r="G46" s="80" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="G47" s="88" t="s">
+      <c r="G47" s="80" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="G48" s="88" t="s">
+      <c r="G48" s="80" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="G49" s="88" t="s">
+      <c r="G49" s="80" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8369,44 +8368,44 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="18">
-      <c r="B53" s="100" t="s">
+      <c r="B53" s="92" t="s">
         <v>942</v>
       </c>
-      <c r="C53" s="100"/>
+      <c r="C53" s="92"/>
     </row>
     <row r="54" spans="1:7" ht="18">
-      <c r="B54" s="100"/>
-      <c r="C54" s="100"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
     </row>
     <row r="55" spans="1:7" ht="18">
-      <c r="B55" s="100"/>
-      <c r="C55" s="100" t="s">
+      <c r="B55" s="92"/>
+      <c r="C55" s="92" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18">
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
     </row>
     <row r="57" spans="1:7" ht="18">
-      <c r="B57" s="100"/>
-      <c r="C57" s="100" t="s">
+      <c r="B57" s="92"/>
+      <c r="C57" s="92" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18">
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
     </row>
     <row r="59" spans="1:7" ht="18">
-      <c r="B59" s="100"/>
-      <c r="C59" s="100" t="s">
+      <c r="B59" s="92"/>
+      <c r="C59" s="92" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18">
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
     </row>
     <row r="75" spans="1:1" ht="23">
       <c r="A75" s="13"/>
@@ -8675,10 +8674,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="79"/>
+      <c r="D46" s="107"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -8898,7 +8897,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="111" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -8912,7 +8911,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="84"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="58" t="s">
         <v>485</v>
       </c>
@@ -8924,7 +8923,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="111" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -8938,7 +8937,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="84"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="26" t="s">
         <v>209</v>
       </c>
@@ -8950,7 +8949,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="111" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -8964,7 +8963,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="84"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
@@ -9004,7 +9003,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="111" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -9018,7 +9017,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="85"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -9030,7 +9029,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="84"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -9070,7 +9069,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="108" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -9084,7 +9083,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="81"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
@@ -9096,7 +9095,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="81"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="26" t="s">
         <v>604</v>
       </c>
@@ -9108,7 +9107,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="81"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="26" t="s">
         <v>248</v>
       </c>
@@ -9120,7 +9119,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="81"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="26" t="s">
         <v>250</v>
       </c>
@@ -9132,7 +9131,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="82"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="26" t="s">
         <v>252</v>
       </c>
@@ -9144,7 +9143,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="108" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -9158,7 +9157,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="81"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="26" t="s">
         <v>259</v>
       </c>
@@ -9170,7 +9169,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="81"/>
+      <c r="B43" s="109"/>
       <c r="C43" s="59" t="s">
         <v>606</v>
       </c>
@@ -9185,7 +9184,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="81"/>
+      <c r="B44" s="109"/>
       <c r="C44" s="26" t="s">
         <v>605</v>
       </c>
@@ -9197,7 +9196,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="81"/>
+      <c r="B45" s="109"/>
       <c r="C45" s="26" t="s">
         <v>264</v>
       </c>
@@ -9212,7 +9211,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="82"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="26" t="s">
         <v>266</v>
       </c>
@@ -9225,7 +9224,7 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="108" t="s">
         <v>268</v>
       </c>
       <c r="C47" s="26" t="s">
@@ -9242,7 +9241,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="81"/>
+      <c r="B48" s="109"/>
       <c r="C48" s="26" t="s">
         <v>272</v>
       </c>
@@ -9255,7 +9254,7 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="81"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="26" t="s">
         <v>275</v>
       </c>
@@ -9270,7 +9269,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="81"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="26" t="s">
         <v>278</v>
       </c>
@@ -9283,7 +9282,7 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="81"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="26" t="s">
         <v>281</v>
       </c>
@@ -9298,7 +9297,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="82"/>
+      <c r="B52" s="110"/>
       <c r="C52" s="26" t="s">
         <v>284</v>
       </c>
@@ -9310,7 +9309,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="108" t="s">
         <v>287</v>
       </c>
       <c r="C53" s="48" t="s">
@@ -9324,7 +9323,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="81"/>
+      <c r="B54" s="109"/>
       <c r="C54" s="48" t="s">
         <v>291</v>
       </c>
@@ -9336,7 +9335,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="81"/>
+      <c r="B55" s="109"/>
       <c r="C55" s="48" t="s">
         <v>294</v>
       </c>
@@ -9348,7 +9347,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="81"/>
+      <c r="B56" s="109"/>
       <c r="C56" s="48" t="s">
         <v>297</v>
       </c>
@@ -9360,7 +9359,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="82"/>
+      <c r="B57" s="110"/>
       <c r="C57" s="48" t="s">
         <v>300</v>
       </c>
@@ -9372,7 +9371,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="108" t="s">
         <v>303</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -9386,7 +9385,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="81"/>
+      <c r="B59" s="109"/>
       <c r="C59" s="26" t="s">
         <v>307</v>
       </c>
@@ -9398,7 +9397,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="81"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="26" t="s">
         <v>310</v>
       </c>
@@ -9410,7 +9409,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="82"/>
+      <c r="B61" s="110"/>
       <c r="C61" s="26" t="s">
         <v>313</v>
       </c>
@@ -12351,9 +12350,9 @@
   </sheetPr>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.83203125" defaultRowHeight="24"/>
@@ -12363,7 +12362,7 @@
     <col min="3" max="3" width="17.33203125" style="63" customWidth="1"/>
     <col min="4" max="4" width="18" style="63" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" style="63" customWidth="1"/>
-    <col min="6" max="6" width="27" style="63" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="63" customWidth="1"/>
     <col min="7" max="7" width="54.5" style="63" customWidth="1"/>
     <col min="8" max="8" width="31.83203125" style="66"/>
     <col min="9" max="16384" width="31.83203125" style="63"/>
@@ -12636,7 +12635,7 @@
       <c r="E13" s="64">
         <v>1</v>
       </c>
-      <c r="G13" s="109" t="s">
+      <c r="G13" s="100" t="s">
         <v>816</v>
       </c>
     </row>
@@ -12986,7 +12985,7 @@
       <c r="E31" s="64">
         <v>1</v>
       </c>
-      <c r="G31" s="112" t="s">
+      <c r="G31" s="103" t="s">
         <v>1102</v>
       </c>
     </row>
@@ -13007,7 +13006,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="24"/>
-      <c r="H32" s="110" t="s">
+      <c r="H32" s="101" t="s">
         <v>824</v>
       </c>
     </row>
@@ -13028,7 +13027,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="24"/>
-      <c r="H33" s="110" t="s">
+      <c r="H33" s="101" t="s">
         <v>630</v>
       </c>
     </row>
@@ -13049,7 +13048,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="22"/>
-      <c r="H34" s="110" t="s">
+      <c r="H34" s="101" t="s">
         <v>825</v>
       </c>
     </row>
@@ -13070,7 +13069,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="24"/>
-      <c r="H35" s="110" t="s">
+      <c r="H35" s="101" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -13088,7 +13087,7 @@
         <v>764</v>
       </c>
       <c r="E36" s="64"/>
-      <c r="H36" s="111"/>
+      <c r="H36" s="102"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="64">
@@ -13107,7 +13106,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="24"/>
-      <c r="H37" s="111"/>
+      <c r="H37" s="102"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="64">
@@ -13504,7 +13503,7 @@
         <v>291</v>
       </c>
       <c r="G79" s="21"/>
-      <c r="H79" s="113" t="s">
+      <c r="H79" s="104" t="s">
         <v>847</v>
       </c>
     </row>
@@ -13512,7 +13511,7 @@
       <c r="F80" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="H80" s="113" t="s">
+      <c r="H80" s="104" t="s">
         <v>630</v>
       </c>
     </row>
@@ -13520,7 +13519,7 @@
       <c r="F81" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="H81" s="113" t="s">
+      <c r="H81" s="104" t="s">
         <v>848</v>
       </c>
     </row>
@@ -13528,12 +13527,12 @@
       <c r="F82" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="H82" s="113" t="s">
+      <c r="H82" s="104" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="83" spans="6:8">
-      <c r="H83" s="114"/>
+      <c r="H83" s="105"/>
     </row>
     <row r="84" spans="6:8">
       <c r="G84" s="21"/>
@@ -13809,7 +13808,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14371,13 +14370,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53120742-3F66-A846-9F6C-4E1D1E46BC73}">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="102"/>
+    <col min="1" max="1" width="10.83203125" style="94"/>
     <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -14423,7 +14420,7 @@
       <c r="C9" s="46" t="s">
         <v>1029</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="95" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -14431,7 +14428,7 @@
       <c r="C10" s="46" t="s">
         <v>1030</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="95" t="s">
         <v>1057</v>
       </c>
     </row>
@@ -14439,7 +14436,7 @@
       <c r="C11" s="46" t="s">
         <v>1031</v>
       </c>
-      <c r="H11" s="103" t="s">
+      <c r="H11" s="95" t="s">
         <v>1058</v>
       </c>
     </row>
@@ -14447,7 +14444,7 @@
       <c r="C12" s="46" t="s">
         <v>1032</v>
       </c>
-      <c r="H12" s="103" t="s">
+      <c r="H12" s="95" t="s">
         <v>1059</v>
       </c>
     </row>
@@ -14479,7 +14476,7 @@
       <c r="C21" s="46" t="s">
         <v>1029</v>
       </c>
-      <c r="H21" s="103" t="s">
+      <c r="H21" s="95" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -14543,7 +14540,7 @@
       <c r="C33" s="46" t="s">
         <v>1029</v>
       </c>
-      <c r="H33" s="103" t="s">
+      <c r="H33" s="95" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -14568,7 +14565,7 @@
       <c r="B38" s="46"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="93" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -14605,7 +14602,7 @@
       <c r="C47" s="46" t="s">
         <v>1029</v>
       </c>
-      <c r="H47" s="103" t="s">
+      <c r="H47" s="95" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -14630,7 +14627,7 @@
       <c r="B52" s="46"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="B53" s="101" t="s">
+      <c r="B53" s="93" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -14665,7 +14662,7 @@
       <c r="C61" s="46" t="s">
         <v>1029</v>
       </c>
-      <c r="H61" s="103" t="s">
+      <c r="H61" s="95" t="s">
         <v>1062</v>
       </c>
     </row>
@@ -14710,7 +14707,7 @@
       <c r="C72" s="46" t="s">
         <v>1040</v>
       </c>
-      <c r="H72" s="103" t="s">
+      <c r="H72" s="95" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -14754,97 +14751,97 @@
     </row>
     <row r="141" spans="2:5">
       <c r="B141"/>
-      <c r="C141" s="104" t="s">
+      <c r="C141" s="96" t="s">
         <v>1092</v>
       </c>
-      <c r="D141" s="105" t="s">
+      <c r="D141" s="97" t="s">
         <v>1064</v>
       </c>
-      <c r="E141" s="99" t="s">
+      <c r="E141" s="91" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="142" spans="2:5">
       <c r="B142"/>
-      <c r="C142" s="94" t="s">
+      <c r="C142" s="86" t="s">
         <v>1084</v>
       </c>
-      <c r="D142" s="94" t="s">
+      <c r="D142" s="86" t="s">
         <v>1066</v>
       </c>
-      <c r="E142" s="94" t="s">
+      <c r="E142" s="86" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="143" spans="2:5">
       <c r="B143"/>
-      <c r="C143" s="94" t="s">
+      <c r="C143" s="86" t="s">
         <v>1085</v>
       </c>
-      <c r="D143" s="94" t="s">
+      <c r="D143" s="86" t="s">
         <v>1067</v>
       </c>
-      <c r="E143" s="94" t="s">
+      <c r="E143" s="86" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="144" spans="2:5">
       <c r="B144"/>
-      <c r="C144" s="94" t="s">
+      <c r="C144" s="86" t="s">
         <v>1086</v>
       </c>
-      <c r="D144" s="94" t="s">
+      <c r="D144" s="86" t="s">
         <v>1068</v>
       </c>
-      <c r="E144" s="94" t="s">
+      <c r="E144" s="86" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="145" spans="2:5">
       <c r="B145"/>
-      <c r="C145" s="94" t="s">
+      <c r="C145" s="86" t="s">
         <v>1087</v>
       </c>
-      <c r="D145" s="94" t="s">
+      <c r="D145" s="86" t="s">
         <v>1069</v>
       </c>
-      <c r="E145" s="94" t="s">
+      <c r="E145" s="86" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="146" spans="2:5">
       <c r="B146"/>
-      <c r="C146" s="94" t="s">
+      <c r="C146" s="86" t="s">
         <v>1088</v>
       </c>
-      <c r="D146" s="94" t="s">
+      <c r="D146" s="86" t="s">
         <v>1070</v>
       </c>
-      <c r="E146" s="94" t="s">
+      <c r="E146" s="86" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="147" spans="2:5">
       <c r="B147"/>
-      <c r="C147" s="94" t="s">
+      <c r="C147" s="86" t="s">
         <v>1089</v>
       </c>
-      <c r="D147" s="94" t="s">
+      <c r="D147" s="86" t="s">
         <v>1071</v>
       </c>
-      <c r="E147" s="94" t="s">
+      <c r="E147" s="86" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="148" spans="2:5">
       <c r="B148"/>
-      <c r="C148" s="107" t="s">
+      <c r="C148" s="98" t="s">
         <v>1096</v>
       </c>
-      <c r="D148" s="106" t="s">
+      <c r="D148" s="86" t="s">
         <v>1097</v>
       </c>
-      <c r="E148" s="108" t="s">
+      <c r="E148" s="99" t="s">
         <v>68</v>
       </c>
     </row>
@@ -14858,97 +14855,97 @@
     </row>
     <row r="151" spans="2:5">
       <c r="B151"/>
-      <c r="C151" s="104" t="s">
+      <c r="C151" s="96" t="s">
         <v>1093</v>
       </c>
-      <c r="D151" s="105" t="s">
+      <c r="D151" s="97" t="s">
         <v>1065</v>
       </c>
-      <c r="E151" s="99" t="s">
+      <c r="E151" s="91" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="152" spans="2:5">
       <c r="B152"/>
-      <c r="C152" s="94" t="s">
+      <c r="C152" s="86" t="s">
         <v>1078</v>
       </c>
-      <c r="D152" s="94" t="s">
+      <c r="D152" s="86" t="s">
         <v>1072</v>
       </c>
-      <c r="E152" s="94" t="s">
+      <c r="E152" s="86" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="153" spans="2:5">
       <c r="B153"/>
-      <c r="C153" s="94" t="s">
+      <c r="C153" s="86" t="s">
         <v>1079</v>
       </c>
-      <c r="D153" s="94" t="s">
+      <c r="D153" s="86" t="s">
         <v>1073</v>
       </c>
-      <c r="E153" s="94" t="s">
+      <c r="E153" s="86" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="154" spans="2:5">
       <c r="B154"/>
-      <c r="C154" s="94" t="s">
+      <c r="C154" s="86" t="s">
         <v>1080</v>
       </c>
-      <c r="D154" s="94" t="s">
+      <c r="D154" s="86" t="s">
         <v>1074</v>
       </c>
-      <c r="E154" s="94" t="s">
+      <c r="E154" s="86" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="155" spans="2:5">
       <c r="B155"/>
-      <c r="C155" s="94" t="s">
+      <c r="C155" s="86" t="s">
         <v>1081</v>
       </c>
-      <c r="D155" s="94" t="s">
+      <c r="D155" s="86" t="s">
         <v>1075</v>
       </c>
-      <c r="E155" s="94" t="s">
+      <c r="E155" s="86" t="s">
         <v>1087</v>
       </c>
     </row>
     <row r="156" spans="2:5">
       <c r="B156"/>
-      <c r="C156" s="94" t="s">
+      <c r="C156" s="86" t="s">
         <v>1082</v>
       </c>
-      <c r="D156" s="94" t="s">
+      <c r="D156" s="86" t="s">
         <v>1076</v>
       </c>
-      <c r="E156" s="94" t="s">
+      <c r="E156" s="86" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="157" spans="2:5">
       <c r="B157"/>
-      <c r="C157" s="94" t="s">
+      <c r="C157" s="86" t="s">
         <v>1083</v>
       </c>
-      <c r="D157" s="94" t="s">
+      <c r="D157" s="86" t="s">
         <v>1077</v>
       </c>
-      <c r="E157" s="94" t="s">
+      <c r="E157" s="86" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="158" spans="2:5">
       <c r="B158"/>
-      <c r="C158" s="107" t="s">
+      <c r="C158" s="98" t="s">
         <v>1098</v>
       </c>
-      <c r="D158" s="106" t="s">
+      <c r="D158" s="86" t="s">
         <v>1099</v>
       </c>
-      <c r="E158" s="108" t="s">
+      <c r="E158" s="99" t="s">
         <v>68</v>
       </c>
     </row>

--- a/Beginner/Slides/Lec_7_8.xlsx
+++ b/Beginner/Slides/Lec_7_8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13889F4-236F-BC4E-B26D-644BF5301F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AD769B-2CC2-B943-A1B8-9F5D88FF0A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="6" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -4669,7 +4669,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="76">
+  <fonts count="77">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5126,6 +5126,11 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="5"/>
+      <name val="Kai Regular"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -5239,7 +5244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5414,6 +5419,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6814,8 +6820,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7274,7 +7280,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="25">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="71" t="s">
         <v>736</v>
       </c>
       <c r="B61" s="42"/>
@@ -7283,18 +7289,18 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="23">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="114" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="23">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="114" t="s">
         <v>870</v>
       </c>
       <c r="B63" s="42"/>
     </row>
     <row r="64" spans="1:5" ht="23">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="71" t="s">
         <v>735</v>
       </c>
       <c r="B64" s="24" t="s">
@@ -7302,7 +7308,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="25">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="71" t="s">
         <v>734</v>
       </c>
       <c r="E65" s="34"/>
@@ -12350,9 +12356,9 @@
   </sheetPr>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.83203125" defaultRowHeight="24"/>
